--- a/db/AiCity-53-A7New.xlsx
+++ b/db/AiCity-53-A7New.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF2D002-5AF1-0D4B-A6FA-C43243012F57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7D5424-5440-1B4A-B88B-0EC175164DAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="50160" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="464">
   <si>
     <t>建案</t>
   </si>
@@ -1364,13 +1375,67 @@
   </si>
   <si>
     <t>023</t>
+  </si>
+  <si>
+    <t>投資建設F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鴻築建設</t>
+  </si>
+  <si>
+    <t>合遠建設</t>
+  </si>
+  <si>
+    <t>佳晟建設</t>
+  </si>
+  <si>
+    <t>和峻建設</t>
+  </si>
+  <si>
+    <t>竹城建設</t>
+  </si>
+  <si>
+    <t>鴻承建設</t>
+  </si>
+  <si>
+    <t>富宇建設</t>
+  </si>
+  <si>
+    <t>和耀建設</t>
+  </si>
+  <si>
+    <t>和發建設</t>
+  </si>
+  <si>
+    <t>協勝建設</t>
+  </si>
+  <si>
+    <t>新潤建設</t>
+  </si>
+  <si>
+    <t>和洲建設</t>
+  </si>
+  <si>
+    <t>允泰開發</t>
+  </si>
+  <si>
+    <t>詠勝開發</t>
+  </si>
+  <si>
+    <t>欣巴巴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禾聯公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1388,6 +1453,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1410,12 +1482,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1718,21 +1791,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH24"/>
+  <dimension ref="A1:AI24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="33" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="34" ySplit="1" topLeftCell="AI2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AH1" sqref="AH1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AJ21" sqref="AJ21"/>
+      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="3"/>
+    <col min="14" max="15" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>423</v>
       </c>
@@ -1772,68 +1846,71 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>424</v>
       </c>
@@ -1877,65 +1954,68 @@
         <v>44</v>
       </c>
       <c r="O2" t="s">
+        <v>448</v>
+      </c>
+      <c r="P2" t="s">
         <v>45</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>47</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>48</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>49</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>50</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>51</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>52</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>53</v>
       </c>
-      <c r="X2" s="1">
+      <c r="Y2" s="1">
         <v>4.2361111111111099E-2</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>54</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>55</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>56</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>57</v>
       </c>
-      <c r="AC2" t="s">
-        <v>58</v>
-      </c>
       <c r="AD2" t="s">
         <v>58</v>
       </c>
       <c r="AE2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF2" t="s">
         <v>59</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>60</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>61</v>
       </c>
-      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>425</v>
       </c>
@@ -1979,64 +2059,67 @@
         <v>70</v>
       </c>
       <c r="O3" t="s">
+        <v>449</v>
+      </c>
+      <c r="P3" t="s">
         <v>45</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>72</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>73</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>74</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>75</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>76</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>77</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>53</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>78</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>54</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>79</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>56</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>80</v>
       </c>
-      <c r="AC3" t="s">
-        <v>58</v>
-      </c>
       <c r="AD3" t="s">
         <v>58</v>
       </c>
       <c r="AE3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF3" t="s">
         <v>81</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>82</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>426</v>
       </c>
@@ -2080,64 +2163,67 @@
         <v>88</v>
       </c>
       <c r="O4" t="s">
+        <v>450</v>
+      </c>
+      <c r="P4" t="s">
         <v>89</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>72</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>90</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>91</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>92</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>93</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>94</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>95</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>96</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>54</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>97</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>56</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>57</v>
       </c>
-      <c r="AC4" t="s">
-        <v>58</v>
-      </c>
       <c r="AD4" t="s">
         <v>58</v>
       </c>
       <c r="AE4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF4" t="s">
         <v>98</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>99</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>427</v>
       </c>
@@ -2181,64 +2267,67 @@
         <v>107</v>
       </c>
       <c r="O5" t="s">
+        <v>451</v>
+      </c>
+      <c r="P5" t="s">
         <v>45</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>108</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>109</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>48</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>110</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>111</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>112</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>113</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>53</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>114</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>54</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>115</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>56</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>80</v>
       </c>
-      <c r="AC5" t="s">
-        <v>58</v>
-      </c>
       <c r="AD5" t="s">
         <v>58</v>
       </c>
       <c r="AE5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF5" t="s">
         <v>116</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>117</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AH5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>428</v>
       </c>
@@ -2279,64 +2368,67 @@
         <v>124</v>
       </c>
       <c r="O6" t="s">
+        <v>452</v>
+      </c>
+      <c r="P6" t="s">
         <v>125</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>126</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>72</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>90</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>127</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>128</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>129</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>130</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>53</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>131</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>54</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>132</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>56</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>133</v>
       </c>
-      <c r="AC6" t="s">
-        <v>58</v>
-      </c>
       <c r="AD6" t="s">
         <v>58</v>
       </c>
       <c r="AE6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF6" t="s">
         <v>134</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>135</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AH6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>429</v>
       </c>
@@ -2380,64 +2472,67 @@
         <v>143</v>
       </c>
       <c r="O7" t="s">
+        <v>453</v>
+      </c>
+      <c r="P7" t="s">
         <v>45</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>144</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>47</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>90</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>145</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>146</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>76</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>147</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>53</v>
       </c>
-      <c r="X7" s="1">
+      <c r="Y7" s="1">
         <v>4.2361111111111099E-2</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>54</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>55</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>56</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>80</v>
       </c>
-      <c r="AC7" t="s">
-        <v>58</v>
-      </c>
       <c r="AD7" t="s">
         <v>58</v>
       </c>
       <c r="AE7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF7" t="s">
         <v>148</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>117</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AH7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>430</v>
       </c>
@@ -2481,64 +2576,67 @@
         <v>156</v>
       </c>
       <c r="O8" t="s">
+        <v>454</v>
+      </c>
+      <c r="P8" t="s">
         <v>157</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>158</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>159</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>160</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>161</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>162</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>51</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>163</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>164</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>165</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>54</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>166</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>56</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>57</v>
       </c>
-      <c r="AC8" t="s">
-        <v>58</v>
-      </c>
       <c r="AD8" t="s">
         <v>58</v>
       </c>
       <c r="AE8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF8" t="s">
         <v>167</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>168</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AH8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>431</v>
       </c>
@@ -2582,64 +2680,67 @@
         <v>177</v>
       </c>
       <c r="O9" t="s">
+        <v>455</v>
+      </c>
+      <c r="P9" t="s">
         <v>45</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>178</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>179</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>48</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>180</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>181</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>76</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>182</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>53</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>183</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>54</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>184</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>56</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>57</v>
       </c>
-      <c r="AC9" t="s">
-        <v>58</v>
-      </c>
       <c r="AD9" t="s">
         <v>58</v>
       </c>
       <c r="AE9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF9" t="s">
         <v>185</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>117</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AH9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>432</v>
       </c>
@@ -2683,64 +2784,67 @@
         <v>44</v>
       </c>
       <c r="O10" t="s">
+        <v>448</v>
+      </c>
+      <c r="P10" t="s">
         <v>45</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>192</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>47</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>193</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>194</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>195</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>196</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>197</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>53</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>198</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>54</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>199</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>56</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>200</v>
       </c>
-      <c r="AC10" t="s">
-        <v>58</v>
-      </c>
       <c r="AD10" t="s">
         <v>58</v>
       </c>
       <c r="AE10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF10" t="s">
         <v>201</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>202</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AH10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>433</v>
       </c>
@@ -2784,64 +2888,67 @@
         <v>210</v>
       </c>
       <c r="O11" t="s">
+        <v>456</v>
+      </c>
+      <c r="P11" t="s">
         <v>45</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>211</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>47</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>73</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>212</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>213</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>76</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>214</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>53</v>
       </c>
-      <c r="X11" s="1">
+      <c r="Y11" s="1">
         <v>4.2361111111111099E-2</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>54</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>215</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>56</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>57</v>
       </c>
-      <c r="AC11" t="s">
-        <v>58</v>
-      </c>
       <c r="AD11" t="s">
         <v>58</v>
       </c>
       <c r="AE11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF11" t="s">
         <v>216</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>117</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AH11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>434</v>
       </c>
@@ -2885,64 +2992,67 @@
         <v>223</v>
       </c>
       <c r="O12" t="s">
+        <v>457</v>
+      </c>
+      <c r="P12" t="s">
         <v>224</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>178</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>225</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>73</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>226</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>227</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>51</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>228</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>53</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>229</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>54</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>230</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>56</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>57</v>
       </c>
-      <c r="AC12" t="s">
-        <v>58</v>
-      </c>
       <c r="AD12" t="s">
         <v>58</v>
       </c>
       <c r="AE12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF12" t="s">
         <v>231</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>117</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AH12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>435</v>
       </c>
@@ -2986,64 +3096,67 @@
         <v>236</v>
       </c>
       <c r="O13" t="s">
+        <v>458</v>
+      </c>
+      <c r="P13" t="s">
         <v>237</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>238</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>239</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>240</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>241</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>242</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>243</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>244</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>53</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>245</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>54</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>246</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>56</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>200</v>
       </c>
-      <c r="AC13" t="s">
-        <v>58</v>
-      </c>
       <c r="AD13" t="s">
         <v>58</v>
       </c>
       <c r="AE13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF13" t="s">
         <v>247</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>248</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AH13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>436</v>
       </c>
@@ -3084,64 +3197,67 @@
         <v>254</v>
       </c>
       <c r="O14" t="s">
+        <v>459</v>
+      </c>
+      <c r="P14" t="s">
         <v>45</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>255</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>47</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>90</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>256</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>257</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>258</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>259</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>53</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>78</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>54</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>115</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>56</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>133</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>260</v>
       </c>
-      <c r="AD14" t="s">
-        <v>58</v>
-      </c>
       <c r="AE14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF14" t="s">
         <v>261</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>117</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AH14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>437</v>
       </c>
@@ -3182,64 +3298,67 @@
         <v>124</v>
       </c>
       <c r="O15" t="s">
+        <v>452</v>
+      </c>
+      <c r="P15" t="s">
         <v>125</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>267</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>268</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>269</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>270</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>271</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>272</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>273</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>53</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>274</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>54</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>275</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>56</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>200</v>
       </c>
-      <c r="AC15" t="s">
-        <v>58</v>
-      </c>
       <c r="AD15" t="s">
         <v>58</v>
       </c>
       <c r="AE15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF15" t="s">
         <v>276</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>82</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AH15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>438</v>
       </c>
@@ -3283,64 +3402,67 @@
         <v>44</v>
       </c>
       <c r="O16" t="s">
+        <v>448</v>
+      </c>
+      <c r="P16" t="s">
         <v>45</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>46</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>282</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>90</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>283</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>284</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>51</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>285</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>286</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>287</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>54</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>288</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>56</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>57</v>
       </c>
-      <c r="AC16" t="s">
-        <v>58</v>
-      </c>
       <c r="AD16" t="s">
         <v>58</v>
       </c>
       <c r="AE16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF16" t="s">
         <v>289</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>117</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AH16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>439</v>
       </c>
@@ -3384,64 +3506,67 @@
         <v>156</v>
       </c>
       <c r="O17" t="s">
+        <v>454</v>
+      </c>
+      <c r="P17" t="s">
         <v>297</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>298</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>179</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>299</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>300</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>301</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>302</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>303</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>304</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>131</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>54</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>305</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>306</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>80</v>
       </c>
-      <c r="AC17" t="s">
-        <v>58</v>
-      </c>
       <c r="AD17" t="s">
         <v>58</v>
       </c>
       <c r="AE17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF17" t="s">
         <v>307</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>135</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AH17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>440</v>
       </c>
@@ -3485,64 +3610,67 @@
         <v>314</v>
       </c>
       <c r="O18" t="s">
+        <v>460</v>
+      </c>
+      <c r="P18" t="s">
         <v>315</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>316</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>317</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>193</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>318</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>319</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>243</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>320</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>53</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>321</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>54</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>322</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
         <v>56</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AC18" t="s">
         <v>200</v>
       </c>
-      <c r="AC18" t="s">
-        <v>58</v>
-      </c>
       <c r="AD18" t="s">
         <v>58</v>
       </c>
       <c r="AE18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF18" t="s">
         <v>323</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>324</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AH18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>441</v>
       </c>
@@ -3586,64 +3714,67 @@
         <v>332</v>
       </c>
       <c r="O19" t="s">
+        <v>461</v>
+      </c>
+      <c r="P19" t="s">
         <v>333</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>334</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>335</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>336</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>337</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>338</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>339</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>340</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>53</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>183</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>54</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>341</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AB19" t="s">
         <v>56</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AC19" t="s">
         <v>200</v>
       </c>
-      <c r="AC19" t="s">
-        <v>58</v>
-      </c>
       <c r="AD19" t="s">
         <v>58</v>
       </c>
       <c r="AE19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF19" t="s">
         <v>342</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>324</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AH19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>442</v>
       </c>
@@ -3687,64 +3818,67 @@
         <v>156</v>
       </c>
       <c r="O20" t="s">
+        <v>454</v>
+      </c>
+      <c r="P20" t="s">
         <v>297</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>350</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>351</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>352</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>353</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>354</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>272</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>355</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>356</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>357</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>54</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>358</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AB20" t="s">
         <v>306</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
         <v>359</v>
       </c>
-      <c r="AC20" t="s">
-        <v>58</v>
-      </c>
       <c r="AD20" t="s">
         <v>58</v>
       </c>
       <c r="AE20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF20" t="s">
         <v>360</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>168</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AH20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>443</v>
       </c>
@@ -3787,65 +3921,68 @@
       <c r="N21" t="s">
         <v>365</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O21" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="P21" t="s">
         <v>366</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>367</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>368</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>352</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>369</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>370</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>371</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>372</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>53</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>373</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>54</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>374</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AB21" t="s">
         <v>56</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AC21" t="s">
         <v>200</v>
       </c>
-      <c r="AC21" t="s">
-        <v>58</v>
-      </c>
       <c r="AD21" t="s">
         <v>58</v>
       </c>
       <c r="AE21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF21" t="s">
         <v>375</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>376</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AH21" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>444</v>
       </c>
@@ -3889,64 +4026,67 @@
         <v>156</v>
       </c>
       <c r="O22" t="s">
+        <v>454</v>
+      </c>
+      <c r="P22" t="s">
         <v>297</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>350</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>179</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>352</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>384</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>385</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>272</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>386</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>304</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>183</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>54</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>387</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AB22" t="s">
         <v>56</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AC22" t="s">
         <v>80</v>
       </c>
-      <c r="AC22" t="s">
-        <v>58</v>
-      </c>
       <c r="AD22" t="s">
         <v>58</v>
       </c>
       <c r="AE22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF22" t="s">
         <v>388</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>168</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AH22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>445</v>
       </c>
@@ -3990,64 +4130,67 @@
         <v>44</v>
       </c>
       <c r="O23" t="s">
+        <v>448</v>
+      </c>
+      <c r="P23" t="s">
         <v>45</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>396</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>397</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>90</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>398</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>399</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>400</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>401</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>53</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>402</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>54</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>403</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AB23" t="s">
         <v>56</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AC23" t="s">
         <v>200</v>
       </c>
-      <c r="AC23" t="s">
-        <v>58</v>
-      </c>
       <c r="AD23" t="s">
         <v>58</v>
       </c>
       <c r="AE23" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF23" t="s">
         <v>404</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>117</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AH23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>446</v>
       </c>
@@ -4090,61 +4233,64 @@
       <c r="N24" t="s">
         <v>413</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O24" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="P24" t="s">
         <v>414</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>415</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>416</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>352</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
         <v>417</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>418</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>112</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>419</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>164</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>78</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>54</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>420</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AB24" t="s">
         <v>56</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AC24" t="s">
         <v>359</v>
       </c>
-      <c r="AC24" t="s">
-        <v>58</v>
-      </c>
       <c r="AD24" t="s">
         <v>58</v>
       </c>
       <c r="AE24" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF24" t="s">
         <v>421</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>422</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AH24" t="s">
         <v>58</v>
       </c>
     </row>

--- a/db/AiCity-53-A7New.xlsx
+++ b/db/AiCity-53-A7New.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45977089-38E2-DB46-87B0-BAE1F262D4CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760250F2-719A-7D4C-91A0-5CE01CD5DFA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17080" yWindow="22580" windowWidth="50160" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32620" yWindow="14060" windowWidth="50160" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -2181,7 +2181,7 @@
       <pane xSplit="36" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AH1" sqref="AH1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2193,6 +2193,7 @@
     <col min="5" max="5" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.83203125" customWidth="1"/>
     <col min="9" max="9" width="19.83203125" customWidth="1"/>
+    <col min="11" max="11" width="39" customWidth="1"/>
     <col min="16" max="17" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>

--- a/db/AiCity-53-A7New.xlsx
+++ b/db/AiCity-53-A7New.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760250F2-719A-7D4C-91A0-5CE01CD5DFA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8493C50-C91B-3340-9E1E-6378B77B9FEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32620" yWindow="14060" windowWidth="50160" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3560" yWindow="13480" windowWidth="66360" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="534">
   <si>
     <t>建案</t>
   </si>
@@ -1794,6 +1794,98 @@
   </si>
   <si>
     <t>Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君邑丘比特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-939-邱比特.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://newhouse.591.com.tw/home/housing/detail?hid=121781&amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27.8~32萬元/坪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180~230萬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022年上半年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二房(25~28坪) 、三房(38~40坪) 、四房(47坪) 、3+1房(46坪)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預售屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅大樓 住家用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文吉路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">桃園市龜山區文桃路 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君悅建設有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君悅建設</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷堡營造工程有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近捷運、明星學區、景觀宅、制震宅、近公園、重劃區、低首付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32.46~33.79%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1幢，4棟，173戶住家，5戶店面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地上15層，地下4層</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平面式190個</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1030.74坪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108桃市都建執照字第00488-01號等1個</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓璞聯合建築師事務所</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1863,7 +1955,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -1872,6 +1964,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2175,13 +2269,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK24"/>
+  <dimension ref="A1:AK25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="36" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="36" ySplit="1" topLeftCell="AK14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AH1" sqref="AH1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1:I1048576"/>
+      <selection pane="bottomRight" activeCell="AJ18" sqref="AJ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4058,22 +4152,22 @@
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>430</v>
+        <v>511</v>
       </c>
       <c r="B18" t="s">
-        <v>302</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>480</v>
+        <v>512</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>513</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="E18" t="s">
-        <v>100</v>
+        <v>515</v>
       </c>
       <c r="F18" t="s">
-        <v>303</v>
+        <v>516</v>
       </c>
       <c r="G18" t="s">
         <v>64</v>
@@ -4082,73 +4176,73 @@
         <v>35</v>
       </c>
       <c r="I18" t="s">
-        <v>304</v>
+        <v>517</v>
       </c>
       <c r="J18" t="s">
         <v>37</v>
       </c>
       <c r="K18" t="s">
-        <v>305</v>
+        <v>518</v>
       </c>
       <c r="L18" t="s">
-        <v>171</v>
+        <v>519</v>
       </c>
       <c r="M18" t="s">
-        <v>67</v>
+        <v>520</v>
       </c>
       <c r="N18" t="s">
-        <v>306</v>
+        <v>521</v>
       </c>
       <c r="O18" t="s">
-        <v>307</v>
+        <v>522</v>
       </c>
       <c r="P18" t="s">
-        <v>308</v>
+        <v>523</v>
       </c>
       <c r="Q18" t="s">
-        <v>450</v>
+        <v>524</v>
       </c>
       <c r="R18" t="s">
-        <v>309</v>
+        <v>525</v>
       </c>
       <c r="S18" t="s">
-        <v>310</v>
+        <v>525</v>
       </c>
       <c r="T18" t="s">
-        <v>311</v>
+        <v>526</v>
       </c>
       <c r="U18" t="s">
-        <v>190</v>
+        <v>527</v>
       </c>
       <c r="V18" t="s">
-        <v>312</v>
-      </c>
-      <c r="W18" t="s">
-        <v>313</v>
+        <v>528</v>
+      </c>
+      <c r="W18" s="8">
+        <v>0.46150000000000002</v>
       </c>
       <c r="X18" t="s">
-        <v>238</v>
+        <v>529</v>
       </c>
       <c r="Y18" t="s">
-        <v>314</v>
+        <v>530</v>
       </c>
       <c r="Z18" t="s">
         <v>52</v>
       </c>
-      <c r="AA18" t="s">
-        <v>315</v>
+      <c r="AA18" s="9">
+        <v>7.0682870370370376E-4</v>
       </c>
       <c r="AB18" t="s">
         <v>53</v>
       </c>
       <c r="AC18" t="s">
-        <v>316</v>
+        <v>531</v>
       </c>
       <c r="AD18" t="s">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="AE18" t="s">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="AF18" t="s">
         <v>57</v>
@@ -4157,10 +4251,10 @@
         <v>57</v>
       </c>
       <c r="AH18" t="s">
-        <v>317</v>
+        <v>532</v>
       </c>
       <c r="AI18" t="s">
-        <v>318</v>
+        <v>533</v>
       </c>
       <c r="AJ18" t="s">
         <v>57</v>
@@ -4168,22 +4262,22 @@
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B19" t="s">
-        <v>319</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>481</v>
+        <v>302</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>480</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E19" t="s">
-        <v>320</v>
+        <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="G19" t="s">
         <v>64</v>
@@ -4191,68 +4285,68 @@
       <c r="H19" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>322</v>
+      <c r="I19" t="s">
+        <v>304</v>
       </c>
       <c r="J19" t="s">
         <v>37</v>
       </c>
       <c r="K19" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="L19" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="M19" t="s">
         <v>67</v>
       </c>
       <c r="N19" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="O19" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="P19" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="Q19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="R19" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="S19" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="T19" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="U19" t="s">
-        <v>330</v>
+        <v>190</v>
       </c>
       <c r="V19" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="W19" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="X19" t="s">
-        <v>333</v>
+        <v>238</v>
       </c>
       <c r="Y19" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="Z19" t="s">
         <v>52</v>
       </c>
       <c r="AA19" t="s">
-        <v>180</v>
+        <v>315</v>
       </c>
       <c r="AB19" t="s">
         <v>53</v>
       </c>
       <c r="AC19" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="AD19" t="s">
         <v>55</v>
@@ -4267,7 +4361,7 @@
         <v>57</v>
       </c>
       <c r="AH19" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="AI19" t="s">
         <v>318</v>
@@ -4278,22 +4372,22 @@
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B20" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="E20" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="F20" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="G20" t="s">
         <v>64</v>
@@ -4301,74 +4395,74 @@
       <c r="H20" t="s">
         <v>35</v>
       </c>
-      <c r="I20" t="s">
-        <v>459</v>
+      <c r="I20" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="J20" t="s">
         <v>37</v>
       </c>
       <c r="K20" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="L20" t="s">
-        <v>171</v>
+        <v>39</v>
       </c>
       <c r="M20" t="s">
         <v>67</v>
       </c>
       <c r="N20" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="O20" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="P20" t="s">
-        <v>153</v>
+        <v>326</v>
       </c>
       <c r="Q20" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="R20" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="S20" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="T20" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="U20" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="V20" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="W20" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="X20" t="s">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="Y20" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="Z20" t="s">
-        <v>349</v>
+        <v>52</v>
       </c>
       <c r="AA20" t="s">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="AB20" t="s">
         <v>53</v>
       </c>
       <c r="AC20" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="AD20" t="s">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="AE20" t="s">
-        <v>352</v>
+        <v>197</v>
       </c>
       <c r="AF20" t="s">
         <v>57</v>
@@ -4377,10 +4471,10 @@
         <v>57</v>
       </c>
       <c r="AH20" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="AI20" t="s">
-        <v>165</v>
+        <v>318</v>
       </c>
       <c r="AJ20" t="s">
         <v>57</v>
@@ -4388,19 +4482,19 @@
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B21" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>338</v>
       </c>
       <c r="F21" t="s">
         <v>339</v>
@@ -4412,13 +4506,13 @@
         <v>35</v>
       </c>
       <c r="I21" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J21" t="s">
         <v>37</v>
       </c>
       <c r="K21" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="L21" t="s">
         <v>171</v>
@@ -4427,58 +4521,58 @@
         <v>67</v>
       </c>
       <c r="N21" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="O21" t="s">
-        <v>260</v>
+        <v>342</v>
       </c>
       <c r="P21" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>452</v>
+        <v>153</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>444</v>
       </c>
       <c r="R21" t="s">
-        <v>358</v>
+        <v>291</v>
       </c>
       <c r="S21" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="T21" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="U21" t="s">
         <v>345</v>
       </c>
       <c r="V21" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="W21" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="X21" t="s">
-        <v>363</v>
+        <v>267</v>
       </c>
       <c r="Y21" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="Z21" t="s">
-        <v>52</v>
+        <v>349</v>
       </c>
       <c r="AA21" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="AB21" t="s">
         <v>53</v>
       </c>
       <c r="AC21" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="AD21" t="s">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="AE21" t="s">
-        <v>197</v>
+        <v>352</v>
       </c>
       <c r="AF21" t="s">
         <v>57</v>
@@ -4487,10 +4581,10 @@
         <v>57</v>
       </c>
       <c r="AH21" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="AI21" t="s">
-        <v>368</v>
+        <v>165</v>
       </c>
       <c r="AJ21" t="s">
         <v>57</v>
@@ -4498,22 +4592,22 @@
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B22" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="E22" t="s">
-        <v>370</v>
+        <v>100</v>
       </c>
       <c r="F22" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="G22" t="s">
         <v>64</v>
@@ -4522,13 +4616,13 @@
         <v>35</v>
       </c>
       <c r="I22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J22" t="s">
         <v>37</v>
       </c>
       <c r="K22" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="L22" t="s">
         <v>171</v>
@@ -4537,58 +4631,58 @@
         <v>67</v>
       </c>
       <c r="N22" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="O22" t="s">
-        <v>374</v>
+        <v>260</v>
       </c>
       <c r="P22" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>444</v>
+        <v>357</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>452</v>
       </c>
       <c r="R22" t="s">
-        <v>291</v>
+        <v>358</v>
       </c>
       <c r="S22" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="T22" t="s">
-        <v>176</v>
+        <v>360</v>
       </c>
       <c r="U22" t="s">
         <v>345</v>
       </c>
       <c r="V22" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="W22" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="X22" t="s">
-        <v>267</v>
+        <v>363</v>
       </c>
       <c r="Y22" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="Z22" t="s">
-        <v>298</v>
+        <v>52</v>
       </c>
       <c r="AA22" t="s">
-        <v>180</v>
+        <v>365</v>
       </c>
       <c r="AB22" t="s">
         <v>53</v>
       </c>
       <c r="AC22" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="AD22" t="s">
         <v>55</v>
       </c>
       <c r="AE22" t="s">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="AF22" t="s">
         <v>57</v>
@@ -4597,10 +4691,10 @@
         <v>57</v>
       </c>
       <c r="AH22" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="AI22" t="s">
-        <v>165</v>
+        <v>368</v>
       </c>
       <c r="AJ22" t="s">
         <v>57</v>
@@ -4608,22 +4702,22 @@
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B23" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="E23" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="F23" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="G23" t="s">
         <v>64</v>
@@ -4631,14 +4725,14 @@
       <c r="H23" t="s">
         <v>35</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>383</v>
+      <c r="I23" t="s">
+        <v>461</v>
       </c>
       <c r="J23" t="s">
         <v>37</v>
       </c>
       <c r="K23" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="L23" t="s">
         <v>171</v>
@@ -4647,58 +4741,58 @@
         <v>67</v>
       </c>
       <c r="N23" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="O23" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="P23" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="Q23" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="R23" t="s">
-        <v>44</v>
+        <v>291</v>
       </c>
       <c r="S23" t="s">
-        <v>387</v>
+        <v>343</v>
       </c>
       <c r="T23" t="s">
-        <v>388</v>
+        <v>176</v>
       </c>
       <c r="U23" t="s">
-        <v>89</v>
+        <v>345</v>
       </c>
       <c r="V23" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="W23" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="X23" t="s">
-        <v>391</v>
+        <v>267</v>
       </c>
       <c r="Y23" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="Z23" t="s">
-        <v>52</v>
+        <v>298</v>
       </c>
       <c r="AA23" t="s">
-        <v>393</v>
+        <v>180</v>
       </c>
       <c r="AB23" t="s">
         <v>53</v>
       </c>
       <c r="AC23" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="AD23" t="s">
         <v>55</v>
       </c>
       <c r="AE23" t="s">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="AF23" t="s">
         <v>57</v>
@@ -4707,10 +4801,10 @@
         <v>57</v>
       </c>
       <c r="AH23" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="AI23" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="AJ23" t="s">
         <v>57</v>
@@ -4718,37 +4812,37 @@
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B24" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="E24" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="F24" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="G24" t="s">
         <v>64</v>
       </c>
       <c r="H24" t="s">
-        <v>399</v>
-      </c>
-      <c r="I24" t="s">
-        <v>462</v>
+        <v>35</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>383</v>
       </c>
       <c r="J24" t="s">
         <v>37</v>
       </c>
       <c r="K24" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="L24" t="s">
         <v>171</v>
@@ -4757,72 +4851,182 @@
         <v>67</v>
       </c>
       <c r="N24" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="O24" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="P24" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q24" s="5" t="s">
-        <v>453</v>
+        <v>43</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>438</v>
       </c>
       <c r="R24" t="s">
-        <v>404</v>
+        <v>44</v>
       </c>
       <c r="S24" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="T24" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="U24" t="s">
-        <v>345</v>
+        <v>89</v>
       </c>
       <c r="V24" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="W24" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="X24" t="s">
-        <v>110</v>
+        <v>391</v>
       </c>
       <c r="Y24" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="Z24" t="s">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="AA24" t="s">
-        <v>77</v>
+        <v>393</v>
       </c>
       <c r="AB24" t="s">
         <v>53</v>
       </c>
       <c r="AC24" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="AD24" t="s">
         <v>55</v>
       </c>
       <c r="AE24" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>395</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B25" t="s">
+        <v>396</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="E25" t="s">
+        <v>397</v>
+      </c>
+      <c r="F25" t="s">
+        <v>398</v>
+      </c>
+      <c r="G25" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" t="s">
+        <v>399</v>
+      </c>
+      <c r="I25" t="s">
+        <v>462</v>
+      </c>
+      <c r="J25" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" t="s">
+        <v>400</v>
+      </c>
+      <c r="L25" t="s">
+        <v>171</v>
+      </c>
+      <c r="M25" t="s">
+        <v>67</v>
+      </c>
+      <c r="N25" t="s">
+        <v>401</v>
+      </c>
+      <c r="O25" t="s">
+        <v>402</v>
+      </c>
+      <c r="P25" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="R25" t="s">
+        <v>404</v>
+      </c>
+      <c r="S25" t="s">
+        <v>405</v>
+      </c>
+      <c r="T25" t="s">
+        <v>406</v>
+      </c>
+      <c r="U25" t="s">
+        <v>345</v>
+      </c>
+      <c r="V25" t="s">
+        <v>407</v>
+      </c>
+      <c r="W25" t="s">
+        <v>408</v>
+      </c>
+      <c r="X25" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>409</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>410</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE25" t="s">
         <v>352</v>
       </c>
-      <c r="AF24" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH24" t="s">
+      <c r="AF25" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH25" t="s">
         <v>411</v>
       </c>
-      <c r="AI24" t="s">
+      <c r="AI25" t="s">
         <v>412</v>
       </c>
-      <c r="AJ24" t="s">
+      <c r="AJ25" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4833,24 +5037,25 @@
     <hyperlink ref="D8" r:id="rId2" xr:uid="{229354DA-30CD-CD45-ADD5-A1E156A2463A}"/>
     <hyperlink ref="D10" r:id="rId3" xr:uid="{20E0C285-828E-DA47-B9FF-190AFAAA3BFD}"/>
     <hyperlink ref="D11" r:id="rId4" xr:uid="{7C90841E-2F56-E34F-BFFB-FEAF6ACE2239}"/>
-    <hyperlink ref="D22" r:id="rId5" xr:uid="{BB68A115-0557-E94A-9426-DA86376D75C6}"/>
+    <hyperlink ref="D23" r:id="rId5" xr:uid="{BB68A115-0557-E94A-9426-DA86376D75C6}"/>
     <hyperlink ref="D7" r:id="rId6" xr:uid="{F906920D-51DE-6747-90BD-663F878A345C}"/>
     <hyperlink ref="D4" r:id="rId7" xr:uid="{47B7478D-9505-7B43-A526-95A6E60FEDD4}"/>
     <hyperlink ref="D17" r:id="rId8" xr:uid="{99F1EC99-7433-B04D-AB8F-CEB5A4C2431B}"/>
     <hyperlink ref="D9" r:id="rId9" xr:uid="{26C5FA85-6CC1-D742-87D8-105E97D4AB66}"/>
     <hyperlink ref="D14" r:id="rId10" xr:uid="{29EEAE9A-30E2-D545-8EB6-79A74C3C8600}"/>
     <hyperlink ref="D12" r:id="rId11" xr:uid="{B542868F-F5E2-4A49-AB4D-93AAC9536C4C}"/>
-    <hyperlink ref="D23" r:id="rId12" xr:uid="{6A5E6DB7-2E26-D147-A359-0209101EDE73}"/>
-    <hyperlink ref="D19" r:id="rId13" xr:uid="{B78D0DB8-7CA0-3248-8098-64144886F46C}"/>
+    <hyperlink ref="D24" r:id="rId12" xr:uid="{6A5E6DB7-2E26-D147-A359-0209101EDE73}"/>
+    <hyperlink ref="D20" r:id="rId13" xr:uid="{B78D0DB8-7CA0-3248-8098-64144886F46C}"/>
     <hyperlink ref="D16" r:id="rId14" xr:uid="{71D8426E-AA74-5641-9535-2268F85959D4}"/>
-    <hyperlink ref="D18" r:id="rId15" xr:uid="{7AC8E3BF-D5F4-F24B-86F8-E4C00EAB6764}"/>
+    <hyperlink ref="D19" r:id="rId15" xr:uid="{7AC8E3BF-D5F4-F24B-86F8-E4C00EAB6764}"/>
     <hyperlink ref="D2" r:id="rId16" xr:uid="{9B34D794-BBE1-514D-BB46-4DE95C383F1D}"/>
-    <hyperlink ref="D24" r:id="rId17" xr:uid="{84E8CC03-8221-5945-8A43-CCE9F60824CA}"/>
+    <hyperlink ref="D25" r:id="rId17" xr:uid="{84E8CC03-8221-5945-8A43-CCE9F60824CA}"/>
     <hyperlink ref="D13" r:id="rId18" xr:uid="{AF0FC5E4-1D2A-6542-AB33-3AAF9780184A}"/>
     <hyperlink ref="D5" r:id="rId19" xr:uid="{EBF9FEB1-406C-CE45-8994-355909EE0110}"/>
     <hyperlink ref="D6" r:id="rId20" xr:uid="{A2E0A8C1-CA69-494C-9194-43E36E411E27}"/>
-    <hyperlink ref="D21" r:id="rId21" xr:uid="{A0E6965E-0931-7146-B412-79B24AD9C454}"/>
-    <hyperlink ref="D20" r:id="rId22" xr:uid="{87CEAD36-299C-3B4D-B23F-AB3602EB2D3E}"/>
+    <hyperlink ref="D22" r:id="rId21" xr:uid="{A0E6965E-0931-7146-B412-79B24AD9C454}"/>
+    <hyperlink ref="D21" r:id="rId22" xr:uid="{87CEAD36-299C-3B4D-B23F-AB3602EB2D3E}"/>
+    <hyperlink ref="D18" r:id="rId23" xr:uid="{CAB21830-8718-2847-B00E-6862C656AD6C}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/db/AiCity-53-A7New.xlsx
+++ b/db/AiCity-53-A7New.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8493C50-C91B-3340-9E1E-6378B77B9FEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAA8631-3B6E-C840-80D4-BD5D0C25F423}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="13480" windowWidth="66360" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12060" yWindow="2240" windowWidth="50160" windowHeight="10220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -1797,10 +1797,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>君邑丘比特</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1886,6 +1882,10 @@
   </si>
   <si>
     <t>拓璞聯合建築師事務所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>024</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2272,10 +2272,10 @@
   <dimension ref="A1:AK25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="36" ySplit="1" topLeftCell="AK14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="36" ySplit="1" topLeftCell="AK13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AH1" sqref="AH1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AJ18" sqref="AJ18"/>
+      <selection pane="bottomRight" activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4152,22 +4152,22 @@
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B18" t="s">
         <v>511</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="E18" t="s">
         <v>514</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>515</v>
-      </c>
-      <c r="F18" t="s">
-        <v>516</v>
       </c>
       <c r="G18" t="s">
         <v>64</v>
@@ -4176,55 +4176,55 @@
         <v>35</v>
       </c>
       <c r="I18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J18" t="s">
         <v>37</v>
       </c>
       <c r="K18" t="s">
+        <v>517</v>
+      </c>
+      <c r="L18" t="s">
         <v>518</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>519</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>520</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>521</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>522</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>523</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>524</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
+        <v>524</v>
+      </c>
+      <c r="T18" t="s">
         <v>525</v>
       </c>
-      <c r="S18" t="s">
-        <v>525</v>
-      </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>526</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>527</v>
-      </c>
-      <c r="V18" t="s">
-        <v>528</v>
       </c>
       <c r="W18" s="8">
         <v>0.46150000000000002</v>
       </c>
       <c r="X18" t="s">
+        <v>528</v>
+      </c>
+      <c r="Y18" t="s">
         <v>529</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>530</v>
       </c>
       <c r="Z18" t="s">
         <v>52</v>
@@ -4236,7 +4236,7 @@
         <v>53</v>
       </c>
       <c r="AC18" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AD18" t="s">
         <v>300</v>
@@ -4251,10 +4251,10 @@
         <v>57</v>
       </c>
       <c r="AH18" t="s">
+        <v>531</v>
+      </c>
+      <c r="AI18" t="s">
         <v>532</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>533</v>
       </c>
       <c r="AJ18" t="s">
         <v>57</v>

--- a/db/AiCity-53-A7New.xlsx
+++ b/db/AiCity-53-A7New.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAA8631-3B6E-C840-80D4-BD5D0C25F423}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9E184D-569E-0245-B340-A9B3BA30FA5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12060" yWindow="2240" windowWidth="50160" windowHeight="10220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="220" yWindow="13740" windowWidth="50040" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="576">
   <si>
     <t>建案</t>
   </si>
@@ -1274,77 +1274,6 @@
   <si>
     <t>no</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>005</t>
-  </si>
-  <si>
-    <t>006</t>
-  </si>
-  <si>
-    <t>007</t>
-  </si>
-  <si>
-    <t>008</t>
-  </si>
-  <si>
-    <t>009</t>
-  </si>
-  <si>
-    <t>010</t>
-  </si>
-  <si>
-    <t>011</t>
-  </si>
-  <si>
-    <t>012</t>
-  </si>
-  <si>
-    <t>013</t>
-  </si>
-  <si>
-    <t>014</t>
-  </si>
-  <si>
-    <t>015</t>
-  </si>
-  <si>
-    <t>016</t>
-  </si>
-  <si>
-    <t>017</t>
-  </si>
-  <si>
-    <t>018</t>
-  </si>
-  <si>
-    <t>019</t>
-  </si>
-  <si>
-    <t>020</t>
-  </si>
-  <si>
-    <t>021</t>
-  </si>
-  <si>
-    <t>022</t>
-  </si>
-  <si>
-    <t>023</t>
   </si>
   <si>
     <t>投資建設F</t>
@@ -1607,51 +1536,462 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-939-竹城明治</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/AiCity-939-根津苑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/AiCity-939-富宇敦峰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/AiCity-939-耀台北</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/AiCity-939-金捷市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/AiCity-939-台北國際村</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/AiCity-939-玉子園</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/AiCity-939-新潤翡麗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/AiCity-939-和洲金剛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/AiCity-939-竹城甲子園</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/AiCity-939-鴻典</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fig/AiCity-939-富宇悅峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-939-富御捷境.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://newhouse.591.com.tw/home/housing/detail?hid=119261&amp;v=720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://newhouse.591.com.tw/home/housing/detail?hid=116430&amp;v=720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://newhouse.591.com.tw/home/housing/detail?hid=116107&amp;v=720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://newhouse.591.com.tw/home/housing/detail?hid=118714&amp;v=720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://newhouse.591.com.tw/home/housing/detail?hid=121157&amp;v=720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://newhouse.591.com.tw/home/housing/detail?hid=118143&amp;v=720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://newhouse.591.com.tw/home/housing/detail?hid=116476&amp;v=720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://newhouse.591.com.tw/home/housing/detail?hid=119483&amp;v=720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://newhouse.591.com.tw/home/housing/detail?hid=118336&amp;v=720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://newhouse.591.com.tw/home/housing/detail?hid=122486&amp;v=720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://newhouse.591.com.tw/home/housing/detail?hid=119531&amp;v=720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://newhouse.591.com.tw/home/housing/detail?hid=122649&amp;v=720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://newhouse.591.com.tw/home/housing/detail?hid=120096&amp;v=720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://newhouse.591.com.tw/home/housing/detail?hid=122584&amp;v=720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://newhouse.591.com.tw/home/housing/detail?hid=120098&amp;v=720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://newhouse.591.com.tw/home/housing/detail?hid=116751&amp;v=720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://newhouse.591.com.tw/home/housing/detail?hid=122734&amp;v=720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://newhouse.591.com.tw/home/housing/detail?hid=117434&amp;v=720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://newhouse.591.com.tw/home/housing/detail?hid=116475</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://newhouse.591.com.tw/home/housing/detail?hid=120762</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://newhouse.591.com.tw/home/housing/detail?hid=118905</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://newhouse.591.com.tw/home/housing/detail?hid=121156&amp;v=720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君邑丘比特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-939-邱比特.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://newhouse.591.com.tw/home/housing/detail?hid=121781&amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27.8~32萬元/坪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180~230萬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022年上半年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二房(25~28坪) 、三房(38~40坪) 、四房(47坪) 、3+1房(46坪)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預售屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅大樓 住家用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文吉路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">桃園市龜山區文桃路 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君悅建設有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君悅建設</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷堡營造工程有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近捷運、明星學區、景觀宅、制震宅、近公園、重劃區、低首付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32.46~33.79%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1幢，4棟，173戶住家，5戶店面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地上15層，地下4層</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平面式190個</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1030.74坪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108桃市都建執照字第00488-01號等1個</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓璞聯合建築師事務所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新未來2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>華悅城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新潤鉑麗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新A7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和發大境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂田田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邱比特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頤昌豐岳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新未來1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>富宇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>天匯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>304</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>307</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>308</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>309</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>404</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>405</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>406</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>407</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>408</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>409</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>311</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>313</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>411</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>412</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>413</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>https://newhouse.591.com.tw/home/housing/detail?hid=125726</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-939-和發大境.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-939-鴻典.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-939-樂甜甜.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-939-玉子園.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-939-台北國際村.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-939-富宇上城.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-939-禾悅花園.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-939-耀台北.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>皇普</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MVP</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-939-皇普MVP.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-939-富宇敦峰.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1674,218 +2014,122 @@
       </rPr>
       <t>V1</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/AiCity-939-詠勝市中欣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/AiCity-939-富宇上城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/AiCity-939-欣時代</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/AiCity-939-富宇哈佛苑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/AiCity-939-鴻築捷市達</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/AiCity-939-禾悅花園</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/AiCity-939-富御捷境.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://newhouse.591.com.tw/home/housing/detail?hid=119261&amp;v=720</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://newhouse.591.com.tw/home/housing/detail?hid=116430&amp;v=720</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://newhouse.591.com.tw/home/housing/detail?hid=116107&amp;v=720</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://newhouse.591.com.tw/home/housing/detail?hid=118714&amp;v=720</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://newhouse.591.com.tw/home/housing/detail?hid=121157&amp;v=720</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://newhouse.591.com.tw/home/housing/detail?hid=118143&amp;v=720</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://newhouse.591.com.tw/home/housing/detail?hid=116476&amp;v=720</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://newhouse.591.com.tw/home/housing/detail?hid=119483&amp;v=720</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://newhouse.591.com.tw/home/housing/detail?hid=118336&amp;v=720</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://newhouse.591.com.tw/home/housing/detail?hid=122486&amp;v=720</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://newhouse.591.com.tw/home/housing/detail?hid=119531&amp;v=720</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://newhouse.591.com.tw/home/housing/detail?hid=122649&amp;v=720</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://newhouse.591.com.tw/home/housing/detail?hid=120096&amp;v=720</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://newhouse.591.com.tw/home/housing/detail?hid=122584&amp;v=720</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://newhouse.591.com.tw/home/housing/detail?hid=120098&amp;v=720</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://newhouse.591.com.tw/home/housing/detail?hid=116751&amp;v=720</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://newhouse.591.com.tw/home/housing/detail?hid=122734&amp;v=720</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://newhouse.591.com.tw/home/housing/detail?hid=117434&amp;v=720</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://newhouse.591.com.tw/home/housing/detail?hid=116475</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://newhouse.591.com.tw/home/housing/detail?hid=120762</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://newhouse.591.com.tw/home/housing/detail?hid=118905</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://newhouse.591.com.tw/home/housing/detail?hid=121156&amp;v=720</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>君邑丘比特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/AiCity-939-邱比特.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://newhouse.591.com.tw/home/housing/detail?hid=121781&amp;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27.8~32萬元/坪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180~230萬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022年上半年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二房(25~28坪) 、三房(38~40坪) 、四房(47坪) 、3+1房(46坪)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>預售屋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住宅大樓 住家用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃園市龜山區文吉路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">桃園市龜山區文桃路 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>君悅建設有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>君悅建設</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>捷堡營造工程有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近捷運、明星學區、景觀宅、制震宅、近公園、重劃區、低首付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32.46~33.79%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1幢，4棟，173戶住家，5戶店面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地上15層，地下4層</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平面式190個</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1030.74坪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>108桃市都建執照字第00488-01號等1個</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拓璞聯合建築師事務所</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>024</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>.jpg</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-939-竹城甲子園.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-939-允將大作.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允將大作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-939-欣時代.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-939-新潤翡麗.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-939-金捷市.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-939-華悅城.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-939-根津苑.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-939-新潤鉑麗.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-939-友文化.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>新未來</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-939-新未來2.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-939-新未來3.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-939-富宇哈佛苑.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-939-和洲金剛.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-939-新A7.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-939-詠勝市中欣.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-939-頤昌豐岳.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-939-鴻築捷市達.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-939-竹城明治.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-939-新未來1.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-939-富宇天匯.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2269,20 +2513,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK25"/>
+  <dimension ref="A1:AK39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="36" ySplit="1" topLeftCell="AK13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="36" ySplit="1" topLeftCell="AK25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AH1" sqref="AH1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q18" sqref="Q18"/>
+      <selection pane="bottomRight" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="3"/>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.83203125" customWidth="1"/>
@@ -2299,10 +2543,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="D1" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -2326,7 +2570,7 @@
         <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>510</v>
+        <v>469</v>
       </c>
       <c r="M1" t="s">
         <v>8</v>
@@ -2338,7 +2582,7 @@
         <v>10</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>437</v>
+        <v>414</v>
       </c>
       <c r="Q1" t="s">
         <v>11</v>
@@ -2401,207 +2645,113 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
+        <v>534</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>496</v>
       </c>
       <c r="C2" t="s">
-        <v>466</v>
+        <v>542</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>438</v>
-      </c>
-      <c r="R2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V2" t="s">
-        <v>48</v>
-      </c>
-      <c r="W2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>4.2361111111111099E-2</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK2" s="4"/>
+        <v>541</v>
+      </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>415</v>
+        <v>535</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" t="s">
-        <v>465</v>
+        <v>272</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>460</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>273</v>
       </c>
       <c r="G3" t="s">
         <v>64</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>435</v>
       </c>
       <c r="J3" t="s">
         <v>37</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
+        <v>274</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="M3" t="s">
         <v>67</v>
       </c>
       <c r="N3" t="s">
-        <v>68</v>
+        <v>275</v>
       </c>
       <c r="O3" t="s">
-        <v>68</v>
+        <v>275</v>
       </c>
       <c r="P3" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="Q3" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="R3" t="s">
         <v>44</v>
       </c>
       <c r="S3" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="T3" t="s">
-        <v>71</v>
+        <v>276</v>
       </c>
       <c r="U3" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="V3" t="s">
-        <v>73</v>
+        <v>277</v>
       </c>
       <c r="W3" t="s">
-        <v>74</v>
+        <v>278</v>
       </c>
       <c r="X3" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="Y3" t="s">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="Z3" t="s">
-        <v>52</v>
+        <v>280</v>
       </c>
       <c r="AA3" t="s">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="AB3" t="s">
         <v>53</v>
       </c>
       <c r="AC3" t="s">
-        <v>78</v>
+        <v>282</v>
       </c>
       <c r="AD3" t="s">
         <v>55</v>
       </c>
       <c r="AE3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="AF3" t="s">
         <v>57</v>
@@ -2610,36 +2760,36 @@
         <v>57</v>
       </c>
       <c r="AH3" t="s">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="AI3" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AJ3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>416</v>
+        <v>536</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>467</v>
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>443</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>494</v>
+        <v>462</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
         <v>35</v>
@@ -2651,61 +2801,61 @@
         <v>37</v>
       </c>
       <c r="K4" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="L4" t="s">
         <v>39</v>
       </c>
       <c r="M4" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="N4" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="O4" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="Q4" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
       <c r="R4" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="S4" t="s">
         <v>45</v>
       </c>
       <c r="T4" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="U4" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="V4" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="W4" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="X4" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="Y4" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="Z4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>95</v>
+        <v>52</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>4.2361111111111099E-2</v>
       </c>
       <c r="AB4" t="s">
         <v>53</v>
       </c>
       <c r="AC4" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="AD4" t="s">
         <v>55</v>
@@ -2720,33 +2870,34 @@
         <v>57</v>
       </c>
       <c r="AH4" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AI4" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="AJ4" t="s">
-        <v>57</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="AK4" s="4"/>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>417</v>
+        <v>537</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>487</v>
+        <v>444</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s">
         <v>64</v>
@@ -2755,13 +2906,13 @@
         <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>454</v>
+        <v>36</v>
       </c>
       <c r="J5" t="s">
         <v>37</v>
       </c>
       <c r="K5" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="L5" t="s">
         <v>39</v>
@@ -2770,58 +2921,58 @@
         <v>67</v>
       </c>
       <c r="N5" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="O5" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="Q5" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="R5" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="S5" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="T5" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="U5" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="V5" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="W5" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="X5" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="Y5" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="Z5" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="AA5" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="AB5" t="s">
         <v>53</v>
       </c>
       <c r="AC5" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="AD5" t="s">
         <v>55</v>
       </c>
       <c r="AE5" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="AF5" t="s">
         <v>57</v>
@@ -2830,10 +2981,10 @@
         <v>57</v>
       </c>
       <c r="AH5" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="AI5" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AJ5" t="s">
         <v>57</v>
@@ -2841,204 +2992,108 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>418</v>
+        <v>538</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="E6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" t="s">
-        <v>119</v>
-      </c>
-      <c r="L6" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" t="s">
-        <v>67</v>
-      </c>
-      <c r="N6" t="s">
-        <v>120</v>
-      </c>
-      <c r="O6" t="s">
-        <v>121</v>
-      </c>
-      <c r="P6" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>442</v>
-      </c>
-      <c r="R6" t="s">
-        <v>123</v>
-      </c>
-      <c r="S6" t="s">
-        <v>124</v>
-      </c>
-      <c r="T6" t="s">
-        <v>71</v>
-      </c>
-      <c r="U6" t="s">
-        <v>89</v>
-      </c>
-      <c r="V6" t="s">
-        <v>125</v>
-      </c>
-      <c r="W6" t="s">
-        <v>126</v>
-      </c>
-      <c r="X6" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>134</v>
+        <v>497</v>
+      </c>
+      <c r="C6" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>419</v>
+        <v>539</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>469</v>
+        <v>545</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>493</v>
+        <v>457</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="F7" t="s">
-        <v>136</v>
+        <v>214</v>
       </c>
       <c r="G7" t="s">
         <v>64</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>137</v>
+        <v>171</v>
+      </c>
+      <c r="I7" t="s">
+        <v>434</v>
       </c>
       <c r="J7" t="s">
         <v>37</v>
       </c>
       <c r="K7" t="s">
-        <v>138</v>
+        <v>215</v>
       </c>
       <c r="L7" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="M7" t="s">
         <v>67</v>
       </c>
       <c r="N7" t="s">
-        <v>139</v>
+        <v>216</v>
       </c>
       <c r="O7" t="s">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="P7" t="s">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="Q7" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="R7" t="s">
-        <v>44</v>
+        <v>219</v>
       </c>
       <c r="S7" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="T7" t="s">
-        <v>46</v>
+        <v>220</v>
       </c>
       <c r="U7" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="V7" t="s">
-        <v>143</v>
+        <v>221</v>
       </c>
       <c r="W7" t="s">
-        <v>144</v>
+        <v>222</v>
       </c>
       <c r="X7" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="Y7" t="s">
-        <v>145</v>
+        <v>223</v>
       </c>
       <c r="Z7" t="s">
         <v>52</v>
       </c>
-      <c r="AA7" s="1">
-        <v>4.2361111111111099E-2</v>
+      <c r="AA7" t="s">
+        <v>224</v>
       </c>
       <c r="AB7" t="s">
         <v>53</v>
       </c>
       <c r="AC7" t="s">
-        <v>54</v>
+        <v>225</v>
       </c>
       <c r="AD7" t="s">
         <v>55</v>
       </c>
       <c r="AE7" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="AF7" t="s">
         <v>57</v>
@@ -3047,7 +3102,7 @@
         <v>57</v>
       </c>
       <c r="AH7" t="s">
-        <v>146</v>
+        <v>226</v>
       </c>
       <c r="AI7" t="s">
         <v>115</v>
@@ -3058,22 +3113,22 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>420</v>
+        <v>540</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>470</v>
+        <v>546</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>489</v>
+        <v>450</v>
       </c>
       <c r="E8" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="F8" t="s">
-        <v>149</v>
+        <v>202</v>
       </c>
       <c r="G8" t="s">
         <v>64</v>
@@ -3082,67 +3137,67 @@
         <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="J8" t="s">
         <v>37</v>
       </c>
       <c r="K8" t="s">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="L8" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="M8" t="s">
         <v>67</v>
       </c>
       <c r="N8" t="s">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="O8" t="s">
-        <v>152</v>
+        <v>205</v>
       </c>
       <c r="P8" t="s">
-        <v>153</v>
+        <v>206</v>
       </c>
       <c r="Q8" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="R8" t="s">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="S8" t="s">
-        <v>155</v>
+        <v>207</v>
       </c>
       <c r="T8" t="s">
-        <v>156</v>
+        <v>46</v>
       </c>
       <c r="U8" t="s">
-        <v>157</v>
+        <v>72</v>
       </c>
       <c r="V8" t="s">
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="W8" t="s">
-        <v>159</v>
+        <v>209</v>
       </c>
       <c r="X8" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="Y8" t="s">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="Z8" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>162</v>
+        <v>52</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>4.2361111111111099E-2</v>
       </c>
       <c r="AB8" t="s">
         <v>53</v>
       </c>
       <c r="AC8" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="AD8" t="s">
         <v>55</v>
@@ -3157,10 +3212,10 @@
         <v>57</v>
       </c>
       <c r="AH8" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="AI8" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="AJ8" t="s">
         <v>57</v>
@@ -3168,37 +3223,37 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>421</v>
+        <v>503</v>
       </c>
       <c r="B9" t="s">
-        <v>166</v>
+        <v>337</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>471</v>
+        <v>547</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>496</v>
+        <v>468</v>
       </c>
       <c r="E9" t="s">
-        <v>167</v>
+        <v>338</v>
       </c>
       <c r="F9" t="s">
-        <v>168</v>
+        <v>339</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>169</v>
+      <c r="I9" t="s">
+        <v>436</v>
       </c>
       <c r="J9" t="s">
         <v>37</v>
       </c>
       <c r="K9" t="s">
-        <v>170</v>
+        <v>340</v>
       </c>
       <c r="L9" t="s">
         <v>171</v>
@@ -3207,58 +3262,58 @@
         <v>67</v>
       </c>
       <c r="N9" t="s">
-        <v>172</v>
+        <v>341</v>
       </c>
       <c r="O9" t="s">
-        <v>173</v>
+        <v>342</v>
       </c>
       <c r="P9" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="Q9" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="R9" t="s">
-        <v>44</v>
+        <v>291</v>
       </c>
       <c r="S9" t="s">
-        <v>175</v>
+        <v>343</v>
       </c>
       <c r="T9" t="s">
-        <v>176</v>
+        <v>344</v>
       </c>
       <c r="U9" t="s">
-        <v>47</v>
+        <v>345</v>
       </c>
       <c r="V9" t="s">
-        <v>177</v>
+        <v>346</v>
       </c>
       <c r="W9" t="s">
-        <v>178</v>
+        <v>347</v>
       </c>
       <c r="X9" t="s">
-        <v>75</v>
+        <v>267</v>
       </c>
       <c r="Y9" t="s">
-        <v>179</v>
+        <v>348</v>
       </c>
       <c r="Z9" t="s">
-        <v>52</v>
+        <v>349</v>
       </c>
       <c r="AA9" t="s">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="AB9" t="s">
         <v>53</v>
       </c>
       <c r="AC9" t="s">
-        <v>181</v>
+        <v>351</v>
       </c>
       <c r="AD9" t="s">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="AE9" t="s">
-        <v>56</v>
+        <v>352</v>
       </c>
       <c r="AF9" t="s">
         <v>57</v>
@@ -3267,10 +3322,10 @@
         <v>57</v>
       </c>
       <c r="AH9" t="s">
-        <v>182</v>
+        <v>353</v>
       </c>
       <c r="AI9" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="AJ9" t="s">
         <v>57</v>
@@ -3278,37 +3333,37 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>422</v>
+        <v>504</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>396</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>472</v>
+        <v>548</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="E10" t="s">
-        <v>184</v>
+        <v>397</v>
       </c>
       <c r="F10" t="s">
-        <v>185</v>
+        <v>398</v>
       </c>
       <c r="G10" t="s">
         <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>399</v>
       </c>
       <c r="I10" t="s">
-        <v>186</v>
+        <v>439</v>
       </c>
       <c r="J10" t="s">
         <v>37</v>
       </c>
       <c r="K10" t="s">
-        <v>187</v>
+        <v>400</v>
       </c>
       <c r="L10" t="s">
         <v>171</v>
@@ -3317,58 +3372,58 @@
         <v>67</v>
       </c>
       <c r="N10" t="s">
-        <v>188</v>
+        <v>401</v>
       </c>
       <c r="O10" t="s">
-        <v>188</v>
+        <v>402</v>
       </c>
       <c r="P10" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>438</v>
+        <v>403</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>430</v>
       </c>
       <c r="R10" t="s">
-        <v>44</v>
+        <v>404</v>
       </c>
       <c r="S10" t="s">
-        <v>189</v>
+        <v>405</v>
       </c>
       <c r="T10" t="s">
-        <v>46</v>
+        <v>406</v>
       </c>
       <c r="U10" t="s">
-        <v>190</v>
+        <v>345</v>
       </c>
       <c r="V10" t="s">
-        <v>191</v>
+        <v>407</v>
       </c>
       <c r="W10" t="s">
-        <v>192</v>
+        <v>408</v>
       </c>
       <c r="X10" t="s">
-        <v>193</v>
+        <v>110</v>
       </c>
       <c r="Y10" t="s">
-        <v>194</v>
+        <v>409</v>
       </c>
       <c r="Z10" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="AA10" t="s">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="AB10" t="s">
         <v>53</v>
       </c>
       <c r="AC10" t="s">
-        <v>196</v>
+        <v>410</v>
       </c>
       <c r="AD10" t="s">
         <v>55</v>
       </c>
       <c r="AE10" t="s">
-        <v>197</v>
+        <v>352</v>
       </c>
       <c r="AF10" t="s">
         <v>57</v>
@@ -3377,10 +3432,10 @@
         <v>57</v>
       </c>
       <c r="AH10" t="s">
-        <v>198</v>
+        <v>411</v>
       </c>
       <c r="AI10" t="s">
-        <v>199</v>
+        <v>412</v>
       </c>
       <c r="AJ10" t="s">
         <v>57</v>
@@ -3388,37 +3443,37 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>423</v>
+        <v>505</v>
       </c>
       <c r="B11" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>473</v>
+        <v>549</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>491</v>
+        <v>455</v>
       </c>
       <c r="E11" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="F11" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
         <v>35</v>
       </c>
-      <c r="I11" t="s">
-        <v>456</v>
+      <c r="I11" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="J11" t="s">
         <v>37</v>
       </c>
       <c r="K11" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="L11" t="s">
         <v>171</v>
@@ -3427,52 +3482,52 @@
         <v>67</v>
       </c>
       <c r="N11" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="O11" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="P11" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="Q11" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="R11" t="s">
         <v>44</v>
       </c>
       <c r="S11" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="T11" t="s">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="U11" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="V11" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="W11" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="X11" t="s">
         <v>75</v>
       </c>
       <c r="Y11" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="Z11" t="s">
         <v>52</v>
       </c>
-      <c r="AA11" s="1">
-        <v>4.2361111111111099E-2</v>
+      <c r="AA11" t="s">
+        <v>180</v>
       </c>
       <c r="AB11" t="s">
         <v>53</v>
       </c>
       <c r="AC11" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="AD11" t="s">
         <v>55</v>
@@ -3487,7 +3542,7 @@
         <v>57</v>
       </c>
       <c r="AH11" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="AI11" t="s">
         <v>115</v>
@@ -3498,132 +3553,33 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="B12" t="s">
-        <v>213</v>
+        <v>506</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>550</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="E12" t="s">
-        <v>167</v>
-      </c>
-      <c r="F12" t="s">
-        <v>214</v>
-      </c>
-      <c r="G12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" t="s">
-        <v>171</v>
-      </c>
-      <c r="I12" t="s">
-        <v>457</v>
-      </c>
-      <c r="J12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" t="s">
-        <v>215</v>
-      </c>
-      <c r="L12" t="s">
-        <v>171</v>
-      </c>
-      <c r="M12" t="s">
-        <v>67</v>
-      </c>
-      <c r="N12" t="s">
-        <v>216</v>
-      </c>
-      <c r="O12" t="s">
-        <v>217</v>
-      </c>
-      <c r="P12" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>447</v>
-      </c>
-      <c r="R12" t="s">
-        <v>219</v>
-      </c>
-      <c r="S12" t="s">
-        <v>175</v>
-      </c>
-      <c r="T12" t="s">
-        <v>220</v>
-      </c>
-      <c r="U12" t="s">
-        <v>72</v>
-      </c>
-      <c r="V12" t="s">
-        <v>221</v>
-      </c>
-      <c r="W12" t="s">
-        <v>222</v>
-      </c>
-      <c r="X12" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>223</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>224</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>225</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>226</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>57</v>
+        <v>551</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>425</v>
+        <v>507</v>
       </c>
       <c r="B13" t="s">
-        <v>227</v>
+        <v>147</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>475</v>
+        <v>552</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>505</v>
+        <v>448</v>
       </c>
       <c r="E13" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="G13" t="s">
         <v>64</v>
@@ -3632,73 +3588,73 @@
         <v>35</v>
       </c>
       <c r="I13" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="J13" t="s">
         <v>37</v>
       </c>
       <c r="K13" t="s">
-        <v>228</v>
+        <v>150</v>
       </c>
       <c r="L13" t="s">
-        <v>171</v>
+        <v>39</v>
       </c>
       <c r="M13" t="s">
         <v>67</v>
       </c>
       <c r="N13" t="s">
-        <v>229</v>
+        <v>151</v>
       </c>
       <c r="O13" t="s">
-        <v>230</v>
+        <v>152</v>
       </c>
       <c r="P13" t="s">
-        <v>231</v>
+        <v>153</v>
       </c>
       <c r="Q13" t="s">
-        <v>448</v>
+        <v>421</v>
       </c>
       <c r="R13" t="s">
-        <v>232</v>
+        <v>154</v>
       </c>
       <c r="S13" t="s">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="T13" t="s">
-        <v>234</v>
+        <v>156</v>
       </c>
       <c r="U13" t="s">
-        <v>235</v>
+        <v>157</v>
       </c>
       <c r="V13" t="s">
-        <v>236</v>
+        <v>158</v>
       </c>
       <c r="W13" t="s">
-        <v>237</v>
+        <v>159</v>
       </c>
       <c r="X13" t="s">
-        <v>238</v>
+        <v>50</v>
       </c>
       <c r="Y13" t="s">
-        <v>239</v>
+        <v>160</v>
       </c>
       <c r="Z13" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="AA13" t="s">
-        <v>240</v>
+        <v>162</v>
       </c>
       <c r="AB13" t="s">
         <v>53</v>
       </c>
       <c r="AC13" t="s">
-        <v>241</v>
+        <v>163</v>
       </c>
       <c r="AD13" t="s">
         <v>55</v>
       </c>
       <c r="AE13" t="s">
-        <v>197</v>
+        <v>56</v>
       </c>
       <c r="AF13" t="s">
         <v>57</v>
@@ -3707,10 +3663,10 @@
         <v>57</v>
       </c>
       <c r="AH13" t="s">
-        <v>242</v>
+        <v>164</v>
       </c>
       <c r="AI13" t="s">
-        <v>243</v>
+        <v>165</v>
       </c>
       <c r="AJ13" t="s">
         <v>57</v>
@@ -3718,19 +3674,22 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>426</v>
+        <v>508</v>
       </c>
       <c r="B14" t="s">
-        <v>244</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>476</v>
+        <v>302</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>553</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>497</v>
+        <v>461</v>
       </c>
       <c r="E14" t="s">
-        <v>245</v>
+        <v>100</v>
+      </c>
+      <c r="F14" t="s">
+        <v>303</v>
       </c>
       <c r="G14" t="s">
         <v>64</v>
@@ -3739,13 +3698,13 @@
         <v>35</v>
       </c>
       <c r="I14" t="s">
-        <v>457</v>
+        <v>304</v>
       </c>
       <c r="J14" t="s">
         <v>37</v>
       </c>
       <c r="K14" t="s">
-        <v>246</v>
+        <v>305</v>
       </c>
       <c r="L14" t="s">
         <v>171</v>
@@ -3754,70 +3713,70 @@
         <v>67</v>
       </c>
       <c r="N14" t="s">
-        <v>247</v>
+        <v>306</v>
       </c>
       <c r="O14" t="s">
-        <v>248</v>
+        <v>307</v>
       </c>
       <c r="P14" t="s">
-        <v>249</v>
+        <v>308</v>
       </c>
       <c r="Q14" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="R14" t="s">
-        <v>44</v>
+        <v>309</v>
       </c>
       <c r="S14" t="s">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="T14" t="s">
-        <v>46</v>
+        <v>311</v>
       </c>
       <c r="U14" t="s">
-        <v>89</v>
+        <v>190</v>
       </c>
       <c r="V14" t="s">
-        <v>251</v>
+        <v>312</v>
       </c>
       <c r="W14" t="s">
-        <v>252</v>
+        <v>313</v>
       </c>
       <c r="X14" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="Y14" t="s">
-        <v>254</v>
+        <v>314</v>
       </c>
       <c r="Z14" t="s">
         <v>52</v>
       </c>
       <c r="AA14" t="s">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="AB14" t="s">
         <v>53</v>
       </c>
       <c r="AC14" t="s">
-        <v>113</v>
+        <v>316</v>
       </c>
       <c r="AD14" t="s">
         <v>55</v>
       </c>
       <c r="AE14" t="s">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="AF14" t="s">
-        <v>255</v>
+        <v>57</v>
       </c>
       <c r="AG14" t="s">
         <v>57</v>
       </c>
       <c r="AH14" t="s">
-        <v>256</v>
+        <v>317</v>
       </c>
       <c r="AI14" t="s">
-        <v>115</v>
+        <v>318</v>
       </c>
       <c r="AJ14" t="s">
         <v>57</v>
@@ -3825,16 +3784,16 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>427</v>
+        <v>509</v>
       </c>
       <c r="B15" t="s">
         <v>257</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>477</v>
+        <v>554</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>488</v>
+        <v>447</v>
       </c>
       <c r="E15" t="s">
         <v>167</v>
@@ -3870,7 +3829,7 @@
         <v>122</v>
       </c>
       <c r="Q15" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="R15" t="s">
         <v>123</v>
@@ -3932,132 +3891,33 @@
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="B16" t="s">
-        <v>272</v>
+        <v>510</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>556</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="E16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" t="s">
-        <v>273</v>
-      </c>
-      <c r="G16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16" t="s">
-        <v>458</v>
-      </c>
-      <c r="J16" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16" t="s">
-        <v>274</v>
-      </c>
-      <c r="L16" t="s">
-        <v>171</v>
-      </c>
-      <c r="M16" t="s">
-        <v>67</v>
-      </c>
-      <c r="N16" t="s">
-        <v>275</v>
-      </c>
-      <c r="O16" t="s">
-        <v>275</v>
-      </c>
-      <c r="P16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>438</v>
-      </c>
-      <c r="R16" t="s">
-        <v>44</v>
-      </c>
-      <c r="S16" t="s">
-        <v>45</v>
-      </c>
-      <c r="T16" t="s">
-        <v>276</v>
-      </c>
-      <c r="U16" t="s">
-        <v>89</v>
-      </c>
-      <c r="V16" t="s">
-        <v>277</v>
-      </c>
-      <c r="W16" t="s">
-        <v>278</v>
-      </c>
-      <c r="X16" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>279</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>280</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>281</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>282</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>283</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>57</v>
+        <v>555</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>429</v>
+        <v>511</v>
       </c>
       <c r="B17" t="s">
-        <v>284</v>
+        <v>354</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>479</v>
+        <v>557</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>495</v>
+        <v>467</v>
       </c>
       <c r="E17" t="s">
-        <v>285</v>
+        <v>100</v>
       </c>
       <c r="F17" t="s">
-        <v>286</v>
+        <v>339</v>
       </c>
       <c r="G17" t="s">
         <v>64</v>
@@ -4066,73 +3926,73 @@
         <v>35</v>
       </c>
       <c r="I17" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="J17" t="s">
         <v>37</v>
       </c>
       <c r="K17" t="s">
-        <v>287</v>
+        <v>355</v>
       </c>
       <c r="L17" t="s">
         <v>171</v>
       </c>
       <c r="M17" t="s">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="N17" t="s">
-        <v>289</v>
+        <v>356</v>
       </c>
       <c r="O17" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="P17" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>444</v>
+        <v>357</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>429</v>
       </c>
       <c r="R17" t="s">
-        <v>291</v>
+        <v>358</v>
       </c>
       <c r="S17" t="s">
-        <v>292</v>
+        <v>359</v>
       </c>
       <c r="T17" t="s">
-        <v>176</v>
+        <v>360</v>
       </c>
       <c r="U17" t="s">
-        <v>293</v>
+        <v>345</v>
       </c>
       <c r="V17" t="s">
-        <v>294</v>
+        <v>361</v>
       </c>
       <c r="W17" t="s">
-        <v>295</v>
+        <v>362</v>
       </c>
       <c r="X17" t="s">
-        <v>296</v>
+        <v>363</v>
       </c>
       <c r="Y17" t="s">
-        <v>297</v>
+        <v>364</v>
       </c>
       <c r="Z17" t="s">
-        <v>298</v>
+        <v>52</v>
       </c>
       <c r="AA17" t="s">
-        <v>129</v>
+        <v>365</v>
       </c>
       <c r="AB17" t="s">
         <v>53</v>
       </c>
       <c r="AC17" t="s">
-        <v>299</v>
+        <v>366</v>
       </c>
       <c r="AD17" t="s">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="AE17" t="s">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="AF17" t="s">
         <v>57</v>
@@ -4141,10 +4001,10 @@
         <v>57</v>
       </c>
       <c r="AH17" t="s">
-        <v>301</v>
+        <v>367</v>
       </c>
       <c r="AI17" t="s">
-        <v>133</v>
+        <v>368</v>
       </c>
       <c r="AJ17" t="s">
         <v>57</v>
@@ -4152,22 +4012,22 @@
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="B18" t="s">
-        <v>511</v>
+        <v>227</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>512</v>
+        <v>558</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>513</v>
+        <v>464</v>
       </c>
       <c r="E18" t="s">
-        <v>514</v>
+        <v>167</v>
       </c>
       <c r="F18" t="s">
-        <v>515</v>
+        <v>136</v>
       </c>
       <c r="G18" t="s">
         <v>64</v>
@@ -4176,73 +4036,73 @@
         <v>35</v>
       </c>
       <c r="I18" t="s">
-        <v>516</v>
+        <v>434</v>
       </c>
       <c r="J18" t="s">
         <v>37</v>
       </c>
       <c r="K18" t="s">
-        <v>517</v>
+        <v>228</v>
       </c>
       <c r="L18" t="s">
-        <v>518</v>
+        <v>171</v>
       </c>
       <c r="M18" t="s">
-        <v>519</v>
+        <v>67</v>
       </c>
       <c r="N18" t="s">
-        <v>520</v>
+        <v>229</v>
       </c>
       <c r="O18" t="s">
-        <v>521</v>
+        <v>230</v>
       </c>
       <c r="P18" t="s">
-        <v>522</v>
+        <v>231</v>
       </c>
       <c r="Q18" t="s">
-        <v>523</v>
+        <v>425</v>
       </c>
       <c r="R18" t="s">
-        <v>524</v>
+        <v>232</v>
       </c>
       <c r="S18" t="s">
-        <v>524</v>
+        <v>233</v>
       </c>
       <c r="T18" t="s">
-        <v>525</v>
+        <v>234</v>
       </c>
       <c r="U18" t="s">
-        <v>526</v>
+        <v>235</v>
       </c>
       <c r="V18" t="s">
-        <v>527</v>
-      </c>
-      <c r="W18" s="8">
-        <v>0.46150000000000002</v>
+        <v>236</v>
+      </c>
+      <c r="W18" t="s">
+        <v>237</v>
       </c>
       <c r="X18" t="s">
-        <v>528</v>
+        <v>238</v>
       </c>
       <c r="Y18" t="s">
-        <v>529</v>
+        <v>239</v>
       </c>
       <c r="Z18" t="s">
         <v>52</v>
       </c>
-      <c r="AA18" s="9">
-        <v>7.0682870370370376E-4</v>
+      <c r="AA18" t="s">
+        <v>240</v>
       </c>
       <c r="AB18" t="s">
         <v>53</v>
       </c>
       <c r="AC18" t="s">
-        <v>530</v>
+        <v>241</v>
       </c>
       <c r="AD18" t="s">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="AE18" t="s">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="AF18" t="s">
         <v>57</v>
@@ -4251,10 +4111,10 @@
         <v>57</v>
       </c>
       <c r="AH18" t="s">
-        <v>531</v>
+        <v>242</v>
       </c>
       <c r="AI18" t="s">
-        <v>532</v>
+        <v>243</v>
       </c>
       <c r="AJ18" t="s">
         <v>57</v>
@@ -4262,22 +4122,22 @@
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>430</v>
+        <v>516</v>
       </c>
       <c r="B19" t="s">
-        <v>302</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>480</v>
+        <v>183</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>559</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>502</v>
+        <v>449</v>
       </c>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="F19" t="s">
-        <v>303</v>
+        <v>185</v>
       </c>
       <c r="G19" t="s">
         <v>64</v>
@@ -4286,13 +4146,13 @@
         <v>35</v>
       </c>
       <c r="I19" t="s">
-        <v>304</v>
+        <v>186</v>
       </c>
       <c r="J19" t="s">
         <v>37</v>
       </c>
       <c r="K19" t="s">
-        <v>305</v>
+        <v>187</v>
       </c>
       <c r="L19" t="s">
         <v>171</v>
@@ -4301,52 +4161,52 @@
         <v>67</v>
       </c>
       <c r="N19" t="s">
-        <v>306</v>
+        <v>188</v>
       </c>
       <c r="O19" t="s">
-        <v>307</v>
+        <v>188</v>
       </c>
       <c r="P19" t="s">
-        <v>308</v>
+        <v>43</v>
       </c>
       <c r="Q19" t="s">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="R19" t="s">
-        <v>309</v>
+        <v>44</v>
       </c>
       <c r="S19" t="s">
-        <v>310</v>
+        <v>189</v>
       </c>
       <c r="T19" t="s">
-        <v>311</v>
+        <v>46</v>
       </c>
       <c r="U19" t="s">
         <v>190</v>
       </c>
       <c r="V19" t="s">
-        <v>312</v>
+        <v>191</v>
       </c>
       <c r="W19" t="s">
-        <v>313</v>
+        <v>192</v>
       </c>
       <c r="X19" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="Y19" t="s">
-        <v>314</v>
+        <v>194</v>
       </c>
       <c r="Z19" t="s">
         <v>52</v>
       </c>
       <c r="AA19" t="s">
-        <v>315</v>
+        <v>195</v>
       </c>
       <c r="AB19" t="s">
         <v>53</v>
       </c>
       <c r="AC19" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="AD19" t="s">
         <v>55</v>
@@ -4361,10 +4221,10 @@
         <v>57</v>
       </c>
       <c r="AH19" t="s">
-        <v>317</v>
+        <v>198</v>
       </c>
       <c r="AI19" t="s">
-        <v>318</v>
+        <v>199</v>
       </c>
       <c r="AJ19" t="s">
         <v>57</v>
@@ -4372,132 +4232,33 @@
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="B20" t="s">
-        <v>319</v>
+        <v>517</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="E20" t="s">
-        <v>320</v>
-      </c>
-      <c r="F20" t="s">
-        <v>321</v>
-      </c>
-      <c r="G20" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" t="s">
-        <v>35</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="J20" t="s">
-        <v>37</v>
-      </c>
-      <c r="K20" t="s">
-        <v>323</v>
-      </c>
-      <c r="L20" t="s">
-        <v>39</v>
-      </c>
-      <c r="M20" t="s">
-        <v>67</v>
-      </c>
-      <c r="N20" t="s">
-        <v>324</v>
-      </c>
-      <c r="O20" t="s">
-        <v>325</v>
-      </c>
-      <c r="P20" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>451</v>
-      </c>
-      <c r="R20" t="s">
-        <v>327</v>
-      </c>
-      <c r="S20" t="s">
-        <v>328</v>
-      </c>
-      <c r="T20" t="s">
-        <v>329</v>
-      </c>
-      <c r="U20" t="s">
-        <v>330</v>
-      </c>
-      <c r="V20" t="s">
-        <v>331</v>
-      </c>
-      <c r="W20" t="s">
-        <v>332</v>
-      </c>
-      <c r="X20" t="s">
-        <v>333</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>334</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>180</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>335</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>336</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>318</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>57</v>
+        <v>560</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>432</v>
+        <v>518</v>
       </c>
       <c r="B21" t="s">
-        <v>337</v>
+        <v>135</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>482</v>
+        <v>561</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>509</v>
+        <v>452</v>
       </c>
       <c r="E21" t="s">
-        <v>338</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s">
-        <v>339</v>
+        <v>136</v>
       </c>
       <c r="G21" t="s">
         <v>64</v>
@@ -4505,74 +4266,74 @@
       <c r="H21" t="s">
         <v>35</v>
       </c>
-      <c r="I21" t="s">
-        <v>459</v>
+      <c r="I21" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="J21" t="s">
         <v>37</v>
       </c>
       <c r="K21" t="s">
-        <v>340</v>
+        <v>138</v>
       </c>
       <c r="L21" t="s">
-        <v>171</v>
+        <v>39</v>
       </c>
       <c r="M21" t="s">
         <v>67</v>
       </c>
       <c r="N21" t="s">
-        <v>341</v>
+        <v>139</v>
       </c>
       <c r="O21" t="s">
-        <v>342</v>
+        <v>140</v>
       </c>
       <c r="P21" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="Q21" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="R21" t="s">
-        <v>291</v>
+        <v>44</v>
       </c>
       <c r="S21" t="s">
-        <v>343</v>
+        <v>142</v>
       </c>
       <c r="T21" t="s">
-        <v>344</v>
+        <v>46</v>
       </c>
       <c r="U21" t="s">
-        <v>345</v>
+        <v>89</v>
       </c>
       <c r="V21" t="s">
-        <v>346</v>
+        <v>143</v>
       </c>
       <c r="W21" t="s">
-        <v>347</v>
+        <v>144</v>
       </c>
       <c r="X21" t="s">
-        <v>267</v>
+        <v>75</v>
       </c>
       <c r="Y21" t="s">
-        <v>348</v>
+        <v>145</v>
       </c>
       <c r="Z21" t="s">
-        <v>349</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>350</v>
+        <v>52</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>4.2361111111111099E-2</v>
       </c>
       <c r="AB21" t="s">
         <v>53</v>
       </c>
       <c r="AC21" t="s">
-        <v>351</v>
+        <v>54</v>
       </c>
       <c r="AD21" t="s">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="AE21" t="s">
-        <v>352</v>
+        <v>79</v>
       </c>
       <c r="AF21" t="s">
         <v>57</v>
@@ -4581,10 +4342,10 @@
         <v>57</v>
       </c>
       <c r="AH21" t="s">
-        <v>353</v>
+        <v>146</v>
       </c>
       <c r="AI21" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="AJ21" t="s">
         <v>57</v>
@@ -4592,132 +4353,33 @@
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="B22" t="s">
-        <v>354</v>
+        <v>519</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="E22" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" t="s">
-        <v>339</v>
-      </c>
-      <c r="G22" t="s">
-        <v>64</v>
-      </c>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-      <c r="I22" t="s">
-        <v>460</v>
-      </c>
-      <c r="J22" t="s">
-        <v>37</v>
-      </c>
-      <c r="K22" t="s">
-        <v>355</v>
-      </c>
-      <c r="L22" t="s">
-        <v>171</v>
-      </c>
-      <c r="M22" t="s">
-        <v>67</v>
-      </c>
-      <c r="N22" t="s">
-        <v>356</v>
-      </c>
-      <c r="O22" t="s">
-        <v>260</v>
-      </c>
-      <c r="P22" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="R22" t="s">
-        <v>358</v>
-      </c>
-      <c r="S22" t="s">
-        <v>359</v>
-      </c>
-      <c r="T22" t="s">
-        <v>360</v>
-      </c>
-      <c r="U22" t="s">
-        <v>345</v>
-      </c>
-      <c r="V22" t="s">
-        <v>361</v>
-      </c>
-      <c r="W22" t="s">
-        <v>362</v>
-      </c>
-      <c r="X22" t="s">
-        <v>363</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>364</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>365</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>366</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>367</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>368</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>57</v>
+        <v>562</v>
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>434</v>
+        <v>527</v>
       </c>
       <c r="B23" t="s">
-        <v>369</v>
+        <v>284</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>484</v>
+        <v>445</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>492</v>
+        <v>454</v>
       </c>
       <c r="E23" t="s">
-        <v>370</v>
+        <v>285</v>
       </c>
       <c r="F23" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G23" t="s">
         <v>64</v>
@@ -4726,70 +4388,70 @@
         <v>35</v>
       </c>
       <c r="I23" t="s">
-        <v>461</v>
+        <v>435</v>
       </c>
       <c r="J23" t="s">
         <v>37</v>
       </c>
       <c r="K23" t="s">
-        <v>372</v>
+        <v>287</v>
       </c>
       <c r="L23" t="s">
         <v>171</v>
       </c>
       <c r="M23" t="s">
-        <v>67</v>
+        <v>288</v>
       </c>
       <c r="N23" t="s">
-        <v>373</v>
+        <v>289</v>
       </c>
       <c r="O23" t="s">
-        <v>374</v>
+        <v>290</v>
       </c>
       <c r="P23" t="s">
         <v>153</v>
       </c>
       <c r="Q23" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="R23" t="s">
         <v>291</v>
       </c>
       <c r="S23" t="s">
-        <v>343</v>
+        <v>292</v>
       </c>
       <c r="T23" t="s">
         <v>176</v>
       </c>
       <c r="U23" t="s">
-        <v>345</v>
+        <v>293</v>
       </c>
       <c r="V23" t="s">
-        <v>375</v>
+        <v>294</v>
       </c>
       <c r="W23" t="s">
-        <v>376</v>
+        <v>295</v>
       </c>
       <c r="X23" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="Y23" t="s">
-        <v>377</v>
+        <v>297</v>
       </c>
       <c r="Z23" t="s">
         <v>298</v>
       </c>
       <c r="AA23" t="s">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="AB23" t="s">
         <v>53</v>
       </c>
       <c r="AC23" t="s">
-        <v>378</v>
+        <v>299</v>
       </c>
       <c r="AD23" t="s">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="AE23" t="s">
         <v>79</v>
@@ -4801,10 +4463,10 @@
         <v>57</v>
       </c>
       <c r="AH23" t="s">
-        <v>379</v>
+        <v>301</v>
       </c>
       <c r="AI23" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="AJ23" t="s">
         <v>57</v>
@@ -4812,97 +4474,94 @@
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>435</v>
+        <v>528</v>
       </c>
       <c r="B24" t="s">
-        <v>380</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>499</v>
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>442</v>
       </c>
       <c r="E24" t="s">
-        <v>381</v>
+        <v>62</v>
       </c>
       <c r="F24" t="s">
-        <v>382</v>
+        <v>63</v>
       </c>
       <c r="G24" t="s">
         <v>64</v>
       </c>
       <c r="H24" t="s">
-        <v>35</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>383</v>
+        <v>65</v>
+      </c>
+      <c r="I24" t="s">
+        <v>36</v>
       </c>
       <c r="J24" t="s">
         <v>37</v>
       </c>
       <c r="K24" t="s">
-        <v>384</v>
+        <v>66</v>
       </c>
       <c r="L24" t="s">
-        <v>171</v>
+        <v>39</v>
       </c>
       <c r="M24" t="s">
         <v>67</v>
       </c>
       <c r="N24" t="s">
-        <v>385</v>
+        <v>68</v>
       </c>
       <c r="O24" t="s">
-        <v>386</v>
+        <v>68</v>
       </c>
       <c r="P24" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="Q24" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="R24" t="s">
         <v>44</v>
       </c>
       <c r="S24" t="s">
-        <v>387</v>
+        <v>70</v>
       </c>
       <c r="T24" t="s">
-        <v>388</v>
+        <v>71</v>
       </c>
       <c r="U24" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="V24" t="s">
-        <v>389</v>
+        <v>73</v>
       </c>
       <c r="W24" t="s">
-        <v>390</v>
+        <v>74</v>
       </c>
       <c r="X24" t="s">
-        <v>391</v>
+        <v>75</v>
       </c>
       <c r="Y24" t="s">
-        <v>392</v>
+        <v>76</v>
       </c>
       <c r="Z24" t="s">
         <v>52</v>
       </c>
       <c r="AA24" t="s">
-        <v>393</v>
+        <v>77</v>
       </c>
       <c r="AB24" t="s">
         <v>53</v>
       </c>
       <c r="AC24" t="s">
-        <v>394</v>
+        <v>78</v>
       </c>
       <c r="AD24" t="s">
         <v>55</v>
       </c>
       <c r="AE24" t="s">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="AF24" t="s">
         <v>57</v>
@@ -4911,10 +4570,10 @@
         <v>57</v>
       </c>
       <c r="AH24" t="s">
-        <v>395</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="AJ24" t="s">
         <v>57</v>
@@ -4922,140 +4581,886 @@
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>436</v>
+        <v>529</v>
       </c>
       <c r="B25" t="s">
-        <v>396</v>
+        <v>470</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>504</v>
+        <v>472</v>
       </c>
       <c r="E25" t="s">
-        <v>397</v>
+        <v>473</v>
       </c>
       <c r="F25" t="s">
-        <v>398</v>
+        <v>474</v>
       </c>
       <c r="G25" t="s">
         <v>64</v>
       </c>
       <c r="H25" t="s">
-        <v>399</v>
+        <v>35</v>
       </c>
       <c r="I25" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="J25" t="s">
         <v>37</v>
       </c>
       <c r="K25" t="s">
-        <v>400</v>
+        <v>476</v>
       </c>
       <c r="L25" t="s">
-        <v>171</v>
+        <v>477</v>
       </c>
       <c r="M25" t="s">
-        <v>67</v>
+        <v>478</v>
       </c>
       <c r="N25" t="s">
-        <v>401</v>
+        <v>479</v>
       </c>
       <c r="O25" t="s">
-        <v>402</v>
+        <v>480</v>
       </c>
       <c r="P25" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q25" s="5" t="s">
-        <v>453</v>
+        <v>481</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>482</v>
       </c>
       <c r="R25" t="s">
-        <v>404</v>
+        <v>483</v>
       </c>
       <c r="S25" t="s">
-        <v>405</v>
+        <v>483</v>
       </c>
       <c r="T25" t="s">
-        <v>406</v>
+        <v>484</v>
       </c>
       <c r="U25" t="s">
-        <v>345</v>
+        <v>485</v>
       </c>
       <c r="V25" t="s">
-        <v>407</v>
-      </c>
-      <c r="W25" t="s">
-        <v>408</v>
+        <v>486</v>
+      </c>
+      <c r="W25" s="8">
+        <v>0.46150000000000002</v>
       </c>
       <c r="X25" t="s">
-        <v>110</v>
+        <v>487</v>
       </c>
       <c r="Y25" t="s">
-        <v>409</v>
+        <v>488</v>
       </c>
       <c r="Z25" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>77</v>
+        <v>52</v>
+      </c>
+      <c r="AA25" s="9">
+        <v>7.0682870370370376E-4</v>
       </c>
       <c r="AB25" t="s">
         <v>53</v>
       </c>
       <c r="AC25" t="s">
-        <v>410</v>
+        <v>489</v>
       </c>
       <c r="AD25" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>490</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>491</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="B26" t="s">
+        <v>500</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B29" t="s">
+        <v>369</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E29" t="s">
+        <v>370</v>
+      </c>
+      <c r="F29" t="s">
+        <v>371</v>
+      </c>
+      <c r="G29" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" t="s">
+        <v>438</v>
+      </c>
+      <c r="J29" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" t="s">
+        <v>372</v>
+      </c>
+      <c r="L29" t="s">
+        <v>171</v>
+      </c>
+      <c r="M29" t="s">
+        <v>67</v>
+      </c>
+      <c r="N29" t="s">
+        <v>373</v>
+      </c>
+      <c r="O29" t="s">
+        <v>374</v>
+      </c>
+      <c r="P29" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>421</v>
+      </c>
+      <c r="R29" t="s">
+        <v>291</v>
+      </c>
+      <c r="S29" t="s">
+        <v>343</v>
+      </c>
+      <c r="T29" t="s">
+        <v>176</v>
+      </c>
+      <c r="U29" t="s">
+        <v>345</v>
+      </c>
+      <c r="V29" t="s">
+        <v>375</v>
+      </c>
+      <c r="W29" t="s">
+        <v>376</v>
+      </c>
+      <c r="X29" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>298</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>378</v>
+      </c>
+      <c r="AD29" t="s">
         <v>55</v>
       </c>
-      <c r="AE25" t="s">
-        <v>352</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>411</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>412</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>57</v>
+      <c r="AE29" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>379</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="B30" t="s">
+        <v>244</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="E30" t="s">
+        <v>245</v>
+      </c>
+      <c r="G30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H30" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" t="s">
+        <v>434</v>
+      </c>
+      <c r="J30" t="s">
+        <v>37</v>
+      </c>
+      <c r="K30" t="s">
+        <v>246</v>
+      </c>
+      <c r="L30" t="s">
+        <v>171</v>
+      </c>
+      <c r="M30" t="s">
+        <v>67</v>
+      </c>
+      <c r="N30" t="s">
+        <v>247</v>
+      </c>
+      <c r="O30" t="s">
+        <v>248</v>
+      </c>
+      <c r="P30" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>426</v>
+      </c>
+      <c r="R30" t="s">
+        <v>44</v>
+      </c>
+      <c r="S30" t="s">
+        <v>250</v>
+      </c>
+      <c r="T30" t="s">
+        <v>46</v>
+      </c>
+      <c r="U30" t="s">
+        <v>89</v>
+      </c>
+      <c r="V30" t="s">
+        <v>251</v>
+      </c>
+      <c r="W30" t="s">
+        <v>252</v>
+      </c>
+      <c r="X30" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>255</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>256</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B31" t="s">
+        <v>495</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="B32" t="s">
+        <v>319</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="E32" t="s">
+        <v>320</v>
+      </c>
+      <c r="F32" t="s">
+        <v>321</v>
+      </c>
+      <c r="G32" t="s">
+        <v>64</v>
+      </c>
+      <c r="H32" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="J32" t="s">
+        <v>37</v>
+      </c>
+      <c r="K32" t="s">
+        <v>323</v>
+      </c>
+      <c r="L32" t="s">
+        <v>39</v>
+      </c>
+      <c r="M32" t="s">
+        <v>67</v>
+      </c>
+      <c r="N32" t="s">
+        <v>324</v>
+      </c>
+      <c r="O32" t="s">
+        <v>325</v>
+      </c>
+      <c r="P32" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>428</v>
+      </c>
+      <c r="R32" t="s">
+        <v>327</v>
+      </c>
+      <c r="S32" t="s">
+        <v>328</v>
+      </c>
+      <c r="T32" t="s">
+        <v>329</v>
+      </c>
+      <c r="U32" t="s">
+        <v>330</v>
+      </c>
+      <c r="V32" t="s">
+        <v>331</v>
+      </c>
+      <c r="W32" t="s">
+        <v>332</v>
+      </c>
+      <c r="X32" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>335</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>318</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="B33" t="s">
+        <v>498</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="E35" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" t="s">
+        <v>64</v>
+      </c>
+      <c r="H35" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" t="s">
+        <v>431</v>
+      </c>
+      <c r="J35" t="s">
+        <v>37</v>
+      </c>
+      <c r="K35" t="s">
+        <v>102</v>
+      </c>
+      <c r="L35" t="s">
+        <v>39</v>
+      </c>
+      <c r="M35" t="s">
+        <v>67</v>
+      </c>
+      <c r="N35" t="s">
+        <v>103</v>
+      </c>
+      <c r="O35" t="s">
+        <v>104</v>
+      </c>
+      <c r="P35" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>418</v>
+      </c>
+      <c r="R35" t="s">
+        <v>44</v>
+      </c>
+      <c r="S35" t="s">
+        <v>106</v>
+      </c>
+      <c r="T35" t="s">
+        <v>107</v>
+      </c>
+      <c r="U35" t="s">
+        <v>47</v>
+      </c>
+      <c r="V35" t="s">
+        <v>108</v>
+      </c>
+      <c r="W35" t="s">
+        <v>109</v>
+      </c>
+      <c r="X35" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="B36" t="s">
+        <v>380</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="E36" t="s">
+        <v>381</v>
+      </c>
+      <c r="F36" t="s">
+        <v>382</v>
+      </c>
+      <c r="G36" t="s">
+        <v>64</v>
+      </c>
+      <c r="H36" t="s">
+        <v>35</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="J36" t="s">
+        <v>37</v>
+      </c>
+      <c r="K36" t="s">
+        <v>384</v>
+      </c>
+      <c r="L36" t="s">
+        <v>171</v>
+      </c>
+      <c r="M36" t="s">
+        <v>67</v>
+      </c>
+      <c r="N36" t="s">
+        <v>385</v>
+      </c>
+      <c r="O36" t="s">
+        <v>386</v>
+      </c>
+      <c r="P36" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>415</v>
+      </c>
+      <c r="R36" t="s">
+        <v>44</v>
+      </c>
+      <c r="S36" t="s">
+        <v>387</v>
+      </c>
+      <c r="T36" t="s">
+        <v>388</v>
+      </c>
+      <c r="U36" t="s">
+        <v>89</v>
+      </c>
+      <c r="V36" t="s">
+        <v>389</v>
+      </c>
+      <c r="W36" t="s">
+        <v>390</v>
+      </c>
+      <c r="X36" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>393</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>395</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="B37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="E37" t="s">
+        <v>117</v>
+      </c>
+      <c r="G37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J37" t="s">
+        <v>37</v>
+      </c>
+      <c r="K37" t="s">
+        <v>119</v>
+      </c>
+      <c r="L37" t="s">
+        <v>39</v>
+      </c>
+      <c r="M37" t="s">
+        <v>67</v>
+      </c>
+      <c r="N37" t="s">
+        <v>120</v>
+      </c>
+      <c r="O37" t="s">
+        <v>121</v>
+      </c>
+      <c r="P37" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>419</v>
+      </c>
+      <c r="R37" t="s">
+        <v>123</v>
+      </c>
+      <c r="S37" t="s">
+        <v>124</v>
+      </c>
+      <c r="T37" t="s">
+        <v>71</v>
+      </c>
+      <c r="U37" t="s">
+        <v>89</v>
+      </c>
+      <c r="V37" t="s">
+        <v>125</v>
+      </c>
+      <c r="W37" t="s">
+        <v>126</v>
+      </c>
+      <c r="X37" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B38" t="s">
+        <v>501</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>575</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AK39">
+    <sortCondition ref="A2:A39"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D15" r:id="rId1" xr:uid="{A4670805-3A31-474D-B1B8-7AB62EA8B4B5}"/>
-    <hyperlink ref="D8" r:id="rId2" xr:uid="{229354DA-30CD-CD45-ADD5-A1E156A2463A}"/>
-    <hyperlink ref="D10" r:id="rId3" xr:uid="{20E0C285-828E-DA47-B9FF-190AFAAA3BFD}"/>
-    <hyperlink ref="D11" r:id="rId4" xr:uid="{7C90841E-2F56-E34F-BFFB-FEAF6ACE2239}"/>
-    <hyperlink ref="D23" r:id="rId5" xr:uid="{BB68A115-0557-E94A-9426-DA86376D75C6}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{F906920D-51DE-6747-90BD-663F878A345C}"/>
-    <hyperlink ref="D4" r:id="rId7" xr:uid="{47B7478D-9505-7B43-A526-95A6E60FEDD4}"/>
-    <hyperlink ref="D17" r:id="rId8" xr:uid="{99F1EC99-7433-B04D-AB8F-CEB5A4C2431B}"/>
-    <hyperlink ref="D9" r:id="rId9" xr:uid="{26C5FA85-6CC1-D742-87D8-105E97D4AB66}"/>
-    <hyperlink ref="D14" r:id="rId10" xr:uid="{29EEAE9A-30E2-D545-8EB6-79A74C3C8600}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{B542868F-F5E2-4A49-AB4D-93AAC9536C4C}"/>
-    <hyperlink ref="D24" r:id="rId12" xr:uid="{6A5E6DB7-2E26-D147-A359-0209101EDE73}"/>
-    <hyperlink ref="D20" r:id="rId13" xr:uid="{B78D0DB8-7CA0-3248-8098-64144886F46C}"/>
-    <hyperlink ref="D16" r:id="rId14" xr:uid="{71D8426E-AA74-5641-9535-2268F85959D4}"/>
-    <hyperlink ref="D19" r:id="rId15" xr:uid="{7AC8E3BF-D5F4-F24B-86F8-E4C00EAB6764}"/>
-    <hyperlink ref="D2" r:id="rId16" xr:uid="{9B34D794-BBE1-514D-BB46-4DE95C383F1D}"/>
-    <hyperlink ref="D25" r:id="rId17" xr:uid="{84E8CC03-8221-5945-8A43-CCE9F60824CA}"/>
-    <hyperlink ref="D13" r:id="rId18" xr:uid="{AF0FC5E4-1D2A-6542-AB33-3AAF9780184A}"/>
-    <hyperlink ref="D5" r:id="rId19" xr:uid="{EBF9FEB1-406C-CE45-8994-355909EE0110}"/>
-    <hyperlink ref="D6" r:id="rId20" xr:uid="{A2E0A8C1-CA69-494C-9194-43E36E411E27}"/>
-    <hyperlink ref="D22" r:id="rId21" xr:uid="{A0E6965E-0931-7146-B412-79B24AD9C454}"/>
-    <hyperlink ref="D21" r:id="rId22" xr:uid="{87CEAD36-299C-3B4D-B23F-AB3602EB2D3E}"/>
-    <hyperlink ref="D18" r:id="rId23" xr:uid="{CAB21830-8718-2847-B00E-6862C656AD6C}"/>
+    <hyperlink ref="D13" r:id="rId2" xr:uid="{229354DA-30CD-CD45-ADD5-A1E156A2463A}"/>
+    <hyperlink ref="D19" r:id="rId3" xr:uid="{20E0C285-828E-DA47-B9FF-190AFAAA3BFD}"/>
+    <hyperlink ref="D8" r:id="rId4" xr:uid="{7C90841E-2F56-E34F-BFFB-FEAF6ACE2239}"/>
+    <hyperlink ref="D29" r:id="rId5" xr:uid="{BB68A115-0557-E94A-9426-DA86376D75C6}"/>
+    <hyperlink ref="D21" r:id="rId6" xr:uid="{F906920D-51DE-6747-90BD-663F878A345C}"/>
+    <hyperlink ref="D5" r:id="rId7" xr:uid="{47B7478D-9505-7B43-A526-95A6E60FEDD4}"/>
+    <hyperlink ref="D23" r:id="rId8" xr:uid="{99F1EC99-7433-B04D-AB8F-CEB5A4C2431B}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{26C5FA85-6CC1-D742-87D8-105E97D4AB66}"/>
+    <hyperlink ref="D30" r:id="rId10" xr:uid="{29EEAE9A-30E2-D545-8EB6-79A74C3C8600}"/>
+    <hyperlink ref="D7" r:id="rId11" xr:uid="{B542868F-F5E2-4A49-AB4D-93AAC9536C4C}"/>
+    <hyperlink ref="D36" r:id="rId12" xr:uid="{6A5E6DB7-2E26-D147-A359-0209101EDE73}"/>
+    <hyperlink ref="D32" r:id="rId13" xr:uid="{B78D0DB8-7CA0-3248-8098-64144886F46C}"/>
+    <hyperlink ref="D3" r:id="rId14" xr:uid="{71D8426E-AA74-5641-9535-2268F85959D4}"/>
+    <hyperlink ref="D14" r:id="rId15" xr:uid="{7AC8E3BF-D5F4-F24B-86F8-E4C00EAB6764}"/>
+    <hyperlink ref="D4" r:id="rId16" xr:uid="{9B34D794-BBE1-514D-BB46-4DE95C383F1D}"/>
+    <hyperlink ref="D10" r:id="rId17" xr:uid="{84E8CC03-8221-5945-8A43-CCE9F60824CA}"/>
+    <hyperlink ref="D18" r:id="rId18" xr:uid="{AF0FC5E4-1D2A-6542-AB33-3AAF9780184A}"/>
+    <hyperlink ref="D35" r:id="rId19" xr:uid="{EBF9FEB1-406C-CE45-8994-355909EE0110}"/>
+    <hyperlink ref="D37" r:id="rId20" xr:uid="{A2E0A8C1-CA69-494C-9194-43E36E411E27}"/>
+    <hyperlink ref="D17" r:id="rId21" xr:uid="{A0E6965E-0931-7146-B412-79B24AD9C454}"/>
+    <hyperlink ref="D9" r:id="rId22" xr:uid="{87CEAD36-299C-3B4D-B23F-AB3602EB2D3E}"/>
+    <hyperlink ref="D25" r:id="rId23" xr:uid="{CAB21830-8718-2847-B00E-6862C656AD6C}"/>
+    <hyperlink ref="D2" r:id="rId24" xr:uid="{0515FDA7-9CD0-BB40-A837-6AE05B91FA8F}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>
